--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398084.968581814</v>
+        <v>392526.0293864062</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9159078.263550797</v>
+        <v>9159078.263550799</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5892271.094989433</v>
+        <v>5892271.094989432</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="C8" t="n">
         <v>1.847726076095356</v>
@@ -1141,13 +1141,13 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>1.208186519954751</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="F8" t="n">
-        <v>1.847726076095356</v>
+        <v>1.20818651995475</v>
       </c>
       <c r="G8" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.627477127824789</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="T9" t="n">
-        <v>1.627477127824789</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.847726076095356</v>
+        <v>1.627477127824789</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="T10" t="n">
-        <v>1.627477127824789</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>255.2768113102857</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>289.823809389516</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>289.823809389516</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>42.38601692488736</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.8907943853985</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1457,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.0531815445265</v>
+        <v>7.341798682885787</v>
       </c>
       <c r="H12" t="n">
-        <v>61.66605622305981</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>90.80540754793925</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>181.522432392347</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1517,7 +1517,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104.780633076424</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.6486780598981</v>
       </c>
       <c r="I13" t="n">
-        <v>93.32305563756464</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>171.8601604071551</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>234.0474538683727</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9305174972346</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>182.6022374379921</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>232.261889189896</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>289.823809389516</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>289.823809389516</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895165</v>
       </c>
       <c r="I14" t="n">
-        <v>23.01492212038956</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.00171373994488</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>193.7386580548028</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3602489050548</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>289.8238093895165</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>105.0531815445265</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>17.04353087349148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>90.80540754793927</v>
+        <v>90.80540754793925</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>156.6402324290678</v>
+        <v>195.3202613048557</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.850998325167</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.6486780598981</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>142.1589021889305</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.31888543918842</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>289.823809389516</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.916562405230853</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>97.00171373994488</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>193.7386580548026</v>
       </c>
       <c r="U17" t="n">
         <v>254.3602489050548</v>
       </c>
       <c r="V17" t="n">
-        <v>289.823809389516</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="X17" t="n">
-        <v>289.823809389516</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>289.8238093895164</v>
       </c>
     </row>
     <row r="18">
@@ -1931,16 +1931,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>15.35743529084866</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>105.0531815445265</v>
       </c>
       <c r="H18" t="n">
-        <v>61.66605622305981</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>90.80540754793927</v>
+        <v>90.80540754793925</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>78.19451638657844</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.850998325167</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>61.43144300659809</v>
+        <v>234.0474538683727</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9305174972346</v>
+        <v>174.677299965908</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>289.8238093895162</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>289.8238093895162</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>42.38601692488736</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.8907943853985</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3602489050548</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>289.8238093895162</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9165624052308635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>289.8238093895164</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>61.66605622305981</v>
+        <v>61.6660562230598</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>90.80540754793927</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>154.2537057752056</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3202613048557</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>43.45720230193665</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>133.835738039673</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.6486780598981</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>232.1208082582644</v>
+        <v>253.5039086650274</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>255.1820181724349</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>208.2032531237197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>156.5077416359251</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>126.445138219422</v>
       </c>
       <c r="T25" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.96058109946059</v>
       </c>
       <c r="T26" t="n">
         <v>210.2775313912475</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>27.72178535986757</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>69.18166852045485</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
@@ -2651,7 +2651,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>152.9662577680471</v>
@@ -2696,7 +2696,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>134.7033418795624</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -2715,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>1.40792446621145</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2763,25 +2763,25 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>6.396684106063578</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>347.2087064743915</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>108.4043155504823</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>8.475005000638527</v>
       </c>
       <c r="T30" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>145.1930281364667</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>139.2678442953623</v>
       </c>
       <c r="I31" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
-        <v>102.9718697001126</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>161.9173517084311</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>397.0302532094631</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>74.7573442454472</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>28.33627645607701</v>
       </c>
       <c r="H33" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
-        <v>60.32052843435592</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.7387180906774</v>
+        <v>159.8680977098644</v>
       </c>
       <c r="T34" t="n">
         <v>232.9032904027983</v>
@@ -3246,16 +3246,16 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>191.8024358057403</v>
+        <v>172.7015353979705</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>42.89039314612264</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
@@ -3362,7 +3362,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>102.860038440906</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
         <v>195.2992474636072</v>
@@ -3441,10 +3441,10 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>95.15483092665319</v>
       </c>
       <c r="I37" t="n">
-        <v>47.26968652837134</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>353.3864355790591</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>387.5482491943555</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>17.98753873879522</v>
+        <v>102.8600384409065</v>
       </c>
       <c r="U39" t="n">
         <v>195.2992474636072</v>
@@ -3666,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>18.4491505519584</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>29.91860125945226</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>200.7888092945319</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>191.8024358057403</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T42" t="n">
         <v>152.9662577680471</v>
@@ -3884,10 +3884,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>172.2391235517886</v>
       </c>
       <c r="Y42" t="n">
-        <v>107.7017207126674</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>17.26838488962275</v>
+        <v>193.0231230244349</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>237.9993167511148</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3988,13 +3988,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
-        <v>197.5021130657146</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>58.58122432777904</v>
+        <v>31.47278631784781</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
         <v>152.9662577680471</v>
@@ -4118,7 +4118,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>160.9946172538938</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4140,7 +4140,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T46" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>56.61339667122682</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>96.70626784640847</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="C8" t="n">
-        <v>5.524514328527528</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="D8" t="n">
-        <v>5.100988461992135</v>
+        <v>3.23459848613824</v>
       </c>
       <c r="E8" t="n">
-        <v>3.880598037795417</v>
+        <v>1.368208510284346</v>
       </c>
       <c r="F8" t="n">
-        <v>2.014208061941523</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="G8" t="n">
         <v>0.1478180860876284</v>
@@ -4807,7 +4807,7 @@
         <v>1.97706690142203</v>
       </c>
       <c r="K8" t="n">
-        <v>1.97706690142203</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="L8" t="n">
         <v>3.732406673712618</v>
@@ -4819,10 +4819,10 @@
         <v>5.56165548904702</v>
       </c>
       <c r="O8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="P8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="Q8" t="n">
         <v>7.390904304381422</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.014208061941523</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="C9" t="n">
-        <v>2.014208061941523</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="D9" t="n">
-        <v>2.014208061941523</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="E9" t="n">
         <v>2.014208061941523</v>
@@ -4892,10 +4892,10 @@
         <v>1.97706690142203</v>
       </c>
       <c r="M9" t="n">
-        <v>3.732406673712618</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="N9" t="n">
-        <v>5.56165548904702</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="O9" t="n">
         <v>7.390904304381422</v>
@@ -4910,25 +4910,25 @@
         <v>7.390904304381422</v>
       </c>
       <c r="S9" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="T9" t="n">
-        <v>5.746988013649312</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="U9" t="n">
-        <v>3.880598037795417</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="V9" t="n">
-        <v>2.014208061941523</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="W9" t="n">
-        <v>2.014208061941523</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="X9" t="n">
-        <v>2.014208061941523</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.014208061941523</v>
+        <v>5.524514328527528</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="C10" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="D10" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="E10" t="n">
         <v>2.014208061941523</v>
@@ -4965,19 +4965,19 @@
         <v>1.97706690142203</v>
       </c>
       <c r="K10" t="n">
-        <v>1.97706690142203</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="L10" t="n">
-        <v>3.806315716756433</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="M10" t="n">
-        <v>3.806315716756433</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="N10" t="n">
-        <v>5.56165548904702</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="O10" t="n">
-        <v>5.56165548904702</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="P10" t="n">
         <v>7.390904304381422</v>
@@ -4986,28 +4986,28 @@
         <v>7.390904304381422</v>
       </c>
       <c r="R10" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="S10" t="n">
-        <v>7.390904304381422</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="T10" t="n">
-        <v>5.746988013649312</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="U10" t="n">
-        <v>5.746988013649312</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="V10" t="n">
-        <v>5.746988013649312</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="W10" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="X10" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>866.5439149423914</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="C11" t="n">
-        <v>866.5439149423914</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="D11" t="n">
-        <v>866.5439149423914</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="E11" t="n">
-        <v>608.6885499825069</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="F11" t="n">
-        <v>315.9372273668341</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="G11" t="n">
-        <v>23.18590475116129</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="H11" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I11" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J11" t="n">
-        <v>86.75589536813347</v>
+        <v>86.75589536813357</v>
       </c>
       <c r="K11" t="n">
-        <v>202.5799323725119</v>
+        <v>202.5799323725122</v>
       </c>
       <c r="L11" t="n">
-        <v>361.2151056908526</v>
+        <v>361.2151056908529</v>
       </c>
       <c r="M11" t="n">
-        <v>550.5534238979428</v>
+        <v>550.5534238979434</v>
       </c>
       <c r="N11" t="n">
-        <v>744.8240264341686</v>
+        <v>744.8240264341692</v>
       </c>
       <c r="O11" t="n">
-        <v>922.867466738197</v>
+        <v>922.8674667381981</v>
       </c>
       <c r="P11" t="n">
-        <v>1060.850518509236</v>
+        <v>1060.850518509237</v>
       </c>
       <c r="Q11" t="n">
-        <v>1144.960081572445</v>
+        <v>1144.960081572446</v>
       </c>
       <c r="R11" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S11" t="n">
-        <v>1159.295237558064</v>
+        <v>1116.481079048078</v>
       </c>
       <c r="T11" t="n">
-        <v>1159.295237558064</v>
+        <v>901.4398725981807</v>
       </c>
       <c r="U11" t="n">
-        <v>1159.295237558064</v>
+        <v>901.4398725981807</v>
       </c>
       <c r="V11" t="n">
-        <v>1159.295237558064</v>
+        <v>608.6885499825075</v>
       </c>
       <c r="W11" t="n">
-        <v>1159.295237558064</v>
+        <v>608.6885499825075</v>
       </c>
       <c r="X11" t="n">
-        <v>1159.295237558064</v>
+        <v>608.6885499825075</v>
       </c>
       <c r="Y11" t="n">
-        <v>1159.295237558064</v>
+        <v>608.6885499825075</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.0770624821971</v>
+        <v>164.5969342677568</v>
       </c>
       <c r="C12" t="n">
-        <v>312.0819912311428</v>
+        <v>30.60186301670251</v>
       </c>
       <c r="D12" t="n">
-        <v>312.0819912311428</v>
+        <v>30.60186301670251</v>
       </c>
       <c r="E12" t="n">
-        <v>191.5891752234707</v>
+        <v>30.60186301670251</v>
       </c>
       <c r="F12" t="n">
-        <v>191.5891752234707</v>
+        <v>30.60186301670251</v>
       </c>
       <c r="G12" t="n">
-        <v>85.47485043101969</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="H12" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I12" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J12" t="n">
-        <v>53.42652764701413</v>
+        <v>297.0949316216475</v>
       </c>
       <c r="K12" t="n">
-        <v>136.7652728451689</v>
+        <v>380.4336768198024</v>
       </c>
       <c r="L12" t="n">
-        <v>423.6908441407898</v>
+        <v>511.2535335465028</v>
       </c>
       <c r="M12" t="n">
-        <v>678.0248024836</v>
+        <v>671.7536675823184</v>
       </c>
       <c r="N12" t="n">
-        <v>848.608398675167</v>
+        <v>842.3372637738855</v>
       </c>
       <c r="O12" t="n">
-        <v>995.6600459243887</v>
+        <v>989.3889110231073</v>
       </c>
       <c r="P12" t="n">
-        <v>1105.852065315589</v>
+        <v>1099.580930414308</v>
       </c>
       <c r="Q12" t="n">
-        <v>1159.295237558064</v>
+        <v>1153.024102656783</v>
       </c>
       <c r="R12" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S12" t="n">
-        <v>1159.295237558064</v>
+        <v>1067.572603671258</v>
       </c>
       <c r="T12" t="n">
-        <v>1159.295237558064</v>
+        <v>1067.572603671258</v>
       </c>
       <c r="U12" t="n">
-        <v>1159.295237558064</v>
+        <v>1067.572603671258</v>
       </c>
       <c r="V12" t="n">
-        <v>975.9392452425622</v>
+        <v>853.8610766642919</v>
       </c>
       <c r="W12" t="n">
-        <v>762.7060769788909</v>
+        <v>640.6279084006206</v>
       </c>
       <c r="X12" t="n">
-        <v>586.3800951177836</v>
+        <v>464.3019265395134</v>
       </c>
       <c r="Y12" t="n">
-        <v>586.3800951177836</v>
+        <v>304.8999669033435</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>282.0827434057868</v>
+        <v>272.1044008484563</v>
       </c>
       <c r="C13" t="n">
-        <v>282.0827434057868</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="D13" t="n">
-        <v>282.0827434057868</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="E13" t="n">
-        <v>282.0827434057868</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="F13" t="n">
-        <v>117.4516175163781</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="G13" t="n">
-        <v>117.4516175163781</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="H13" t="n">
-        <v>117.4516175163781</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I13" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J13" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="K13" t="n">
         <v>261.3449866828421</v>
       </c>
       <c r="L13" t="n">
-        <v>482.141829990327</v>
+        <v>314.2508363179602</v>
       </c>
       <c r="M13" t="n">
-        <v>539.2432351038135</v>
+        <v>371.3522414314468</v>
       </c>
       <c r="N13" t="n">
-        <v>826.1688063994344</v>
+        <v>658.2778127270681</v>
       </c>
       <c r="O13" t="n">
-        <v>872.3696662624433</v>
+        <v>945.2033840226893</v>
       </c>
       <c r="P13" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="Q13" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="R13" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S13" t="n">
-        <v>985.6991159346752</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="T13" t="n">
-        <v>749.2875463706623</v>
+        <v>922.8836679940526</v>
       </c>
       <c r="U13" t="n">
-        <v>466.5294478886071</v>
+        <v>922.8836679940526</v>
       </c>
       <c r="V13" t="n">
-        <v>466.5294478886071</v>
+        <v>922.8836679940526</v>
       </c>
       <c r="W13" t="n">
-        <v>466.5294478886071</v>
+        <v>922.8836679940526</v>
       </c>
       <c r="X13" t="n">
-        <v>282.0827434057868</v>
+        <v>684.539805853736</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.0827434057868</v>
+        <v>459.8041072425007</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1159.295237558064</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="C14" t="n">
-        <v>924.6872686793813</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="D14" t="n">
-        <v>631.9359460637085</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="E14" t="n">
-        <v>631.9359460637085</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="F14" t="n">
-        <v>631.9359460637085</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="G14" t="n">
-        <v>339.1846234480357</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="H14" t="n">
-        <v>46.43330083236287</v>
+        <v>23.18590475116132</v>
       </c>
       <c r="I14" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116132</v>
       </c>
       <c r="J14" t="n">
-        <v>86.75589536813357</v>
+        <v>86.75589536813391</v>
       </c>
       <c r="K14" t="n">
-        <v>202.5799323725118</v>
+        <v>202.5799323725125</v>
       </c>
       <c r="L14" t="n">
-        <v>361.2151056908526</v>
+        <v>361.2151056908534</v>
       </c>
       <c r="M14" t="n">
-        <v>550.5534238979428</v>
+        <v>550.5534238979438</v>
       </c>
       <c r="N14" t="n">
-        <v>744.8240264341684</v>
+        <v>744.8240264341697</v>
       </c>
       <c r="O14" t="n">
-        <v>922.8674667381969</v>
+        <v>922.8674667381985</v>
       </c>
       <c r="P14" t="n">
-        <v>1060.850518509236</v>
+        <v>1060.850518509237</v>
       </c>
       <c r="Q14" t="n">
-        <v>1144.960081572445</v>
+        <v>1144.960081572447</v>
       </c>
       <c r="R14" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S14" t="n">
-        <v>1159.295237558064</v>
+        <v>1061.313708527819</v>
       </c>
       <c r="T14" t="n">
-        <v>1159.295237558064</v>
+        <v>865.618094331048</v>
       </c>
       <c r="U14" t="n">
-        <v>1159.295237558064</v>
+        <v>608.6885499825078</v>
       </c>
       <c r="V14" t="n">
-        <v>1159.295237558064</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="W14" t="n">
-        <v>1159.295237558064</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="X14" t="n">
-        <v>1159.295237558064</v>
+        <v>315.9372273668346</v>
       </c>
       <c r="Y14" t="n">
-        <v>1159.295237558064</v>
+        <v>315.9372273668346</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>609.6451544004417</v>
+        <v>267.0087333022859</v>
       </c>
       <c r="C15" t="n">
-        <v>475.6500831493873</v>
+        <v>267.0087333022859</v>
       </c>
       <c r="D15" t="n">
-        <v>358.7529253687798</v>
+        <v>267.0087333022859</v>
       </c>
       <c r="E15" t="n">
-        <v>238.2601093611077</v>
+        <v>146.5159172946138</v>
       </c>
       <c r="F15" t="n">
-        <v>129.3002295436123</v>
+        <v>146.5159172946138</v>
       </c>
       <c r="G15" t="n">
-        <v>23.18590475116129</v>
+        <v>40.40159250216281</v>
       </c>
       <c r="H15" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116132</v>
       </c>
       <c r="I15" t="n">
-        <v>32.40338470811665</v>
+        <v>32.4033847081167</v>
       </c>
       <c r="J15" t="n">
-        <v>62.64400760396948</v>
+        <v>220.5129501721401</v>
       </c>
       <c r="K15" t="n">
-        <v>145.9827528021243</v>
+        <v>303.8516953702949</v>
       </c>
       <c r="L15" t="n">
-        <v>276.8026095288245</v>
+        <v>434.6715520969953</v>
       </c>
       <c r="M15" t="n">
-        <v>437.30274356464</v>
+        <v>595.1716861328109</v>
       </c>
       <c r="N15" t="n">
-        <v>724.2283148602609</v>
+        <v>765.7552823243781</v>
       </c>
       <c r="O15" t="n">
-        <v>871.2799621094825</v>
+        <v>912.8069295735999</v>
       </c>
       <c r="P15" t="n">
-        <v>1105.852065315589</v>
+        <v>1022.998948964801</v>
       </c>
       <c r="Q15" t="n">
-        <v>1159.295237558064</v>
+        <v>1076.442121207275</v>
       </c>
       <c r="R15" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S15" t="n">
-        <v>1067.572603671257</v>
+        <v>1067.572603671259</v>
       </c>
       <c r="T15" t="n">
-        <v>1067.572603671257</v>
+        <v>1067.572603671259</v>
       </c>
       <c r="U15" t="n">
-        <v>909.3501466721983</v>
+        <v>870.2794104340305</v>
       </c>
       <c r="V15" t="n">
-        <v>909.3501466721983</v>
+        <v>656.5678834270643</v>
       </c>
       <c r="W15" t="n">
-        <v>909.3501466721983</v>
+        <v>443.3347151633931</v>
       </c>
       <c r="X15" t="n">
-        <v>909.3501466721983</v>
+        <v>267.0087333022859</v>
       </c>
       <c r="Y15" t="n">
-        <v>749.9481870360283</v>
+        <v>267.0087333022859</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>828.0006804681304</v>
+        <v>358.9104030788536</v>
       </c>
       <c r="C16" t="n">
-        <v>656.9073080298469</v>
+        <v>187.8170306405701</v>
       </c>
       <c r="D16" t="n">
-        <v>497.412663352757</v>
+        <v>187.8170306405701</v>
       </c>
       <c r="E16" t="n">
-        <v>497.412663352757</v>
+        <v>187.8170306405701</v>
       </c>
       <c r="F16" t="n">
-        <v>332.7815374633483</v>
+        <v>23.18590475116132</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2653775389371</v>
+        <v>23.18590475116132</v>
       </c>
       <c r="H16" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116132</v>
       </c>
       <c r="I16" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116132</v>
       </c>
       <c r="J16" t="n">
-        <v>88.14558463265011</v>
+        <v>88.14558463265017</v>
       </c>
       <c r="K16" t="n">
-        <v>120.0244729786167</v>
+        <v>326.304666564331</v>
       </c>
       <c r="L16" t="n">
-        <v>406.9500442742377</v>
+        <v>613.2302378599524</v>
       </c>
       <c r="M16" t="n">
-        <v>464.0514493877241</v>
+        <v>670.3316429734389</v>
       </c>
       <c r="N16" t="n">
-        <v>585.4440949668224</v>
+        <v>729.2576022931515</v>
       </c>
       <c r="O16" t="n">
-        <v>872.3696662624433</v>
+        <v>872.3696662624446</v>
       </c>
       <c r="P16" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="Q16" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="R16" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S16" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="T16" t="n">
-        <v>1015.700386862175</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="U16" t="n">
-        <v>1015.700386862175</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.700386862175</v>
+        <v>1064.02363610434</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.700386862175</v>
+        <v>784.9539716132147</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.700386862175</v>
+        <v>546.610109472898</v>
       </c>
       <c r="Y16" t="n">
-        <v>1015.700386862175</v>
+        <v>546.610109472898</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.8630479781784</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="C17" t="n">
-        <v>316.8630479781784</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="D17" t="n">
-        <v>24.11172536250558</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="E17" t="n">
-        <v>24.11172536250558</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="F17" t="n">
-        <v>24.11172536250558</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="G17" t="n">
-        <v>24.11172536250558</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="H17" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I17" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J17" t="n">
-        <v>86.75589536813347</v>
+        <v>86.75589536813364</v>
       </c>
       <c r="K17" t="n">
-        <v>202.5799323725119</v>
+        <v>202.5799323725122</v>
       </c>
       <c r="L17" t="n">
-        <v>361.2151056908524</v>
+        <v>361.215105690853</v>
       </c>
       <c r="M17" t="n">
-        <v>550.5534238979426</v>
+        <v>550.5534238979434</v>
       </c>
       <c r="N17" t="n">
-        <v>744.8240264341683</v>
+        <v>744.8240264341692</v>
       </c>
       <c r="O17" t="n">
-        <v>922.867466738197</v>
+        <v>922.8674667381979</v>
       </c>
       <c r="P17" t="n">
-        <v>1060.850518509236</v>
+        <v>1060.850518509237</v>
       </c>
       <c r="Q17" t="n">
-        <v>1144.960081572445</v>
+        <v>1144.960081572446</v>
       </c>
       <c r="R17" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S17" t="n">
-        <v>1159.295237558064</v>
+        <v>1061.313708527818</v>
       </c>
       <c r="T17" t="n">
-        <v>1159.295237558064</v>
+        <v>865.6180943310478</v>
       </c>
       <c r="U17" t="n">
-        <v>902.3656932095239</v>
+        <v>608.6885499825075</v>
       </c>
       <c r="V17" t="n">
-        <v>609.6143705938512</v>
+        <v>608.6885499825075</v>
       </c>
       <c r="W17" t="n">
-        <v>609.6143705938512</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="X17" t="n">
-        <v>316.8630479781784</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="Y17" t="n">
-        <v>316.8630479781784</v>
+        <v>23.18590475116131</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>323.9988939039254</v>
+        <v>475.6500831493873</v>
       </c>
       <c r="C18" t="n">
-        <v>323.9988939039254</v>
+        <v>475.6500831493873</v>
       </c>
       <c r="D18" t="n">
-        <v>207.1017361233178</v>
+        <v>358.7529253687798</v>
       </c>
       <c r="E18" t="n">
-        <v>207.1017361233178</v>
+        <v>238.2601093611078</v>
       </c>
       <c r="F18" t="n">
-        <v>191.5891752234707</v>
+        <v>129.3002295436123</v>
       </c>
       <c r="G18" t="n">
-        <v>85.47485043101969</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="H18" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I18" t="n">
-        <v>32.40338470811665</v>
+        <v>32.4033847081167</v>
       </c>
       <c r="J18" t="n">
-        <v>62.6440076039695</v>
+        <v>62.6440076039696</v>
       </c>
       <c r="K18" t="n">
-        <v>145.9827528021243</v>
+        <v>303.8516953702945</v>
       </c>
       <c r="L18" t="n">
-        <v>276.8026095288246</v>
+        <v>434.6715520969948</v>
       </c>
       <c r="M18" t="n">
-        <v>563.7281808244454</v>
+        <v>595.1716861328105</v>
       </c>
       <c r="N18" t="n">
-        <v>734.3117770160125</v>
+        <v>765.7552823243776</v>
       </c>
       <c r="O18" t="n">
-        <v>881.3634242652341</v>
+        <v>912.8069295735994</v>
       </c>
       <c r="P18" t="n">
-        <v>1105.852065315589</v>
+        <v>1022.9989489648</v>
       </c>
       <c r="Q18" t="n">
-        <v>1159.295237558064</v>
+        <v>1076.442121207275</v>
       </c>
       <c r="R18" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S18" t="n">
-        <v>1067.572603671257</v>
+        <v>1067.572603671258</v>
       </c>
       <c r="T18" t="n">
-        <v>1067.572603671257</v>
+        <v>988.5882436848152</v>
       </c>
       <c r="U18" t="n">
-        <v>1067.572603671257</v>
+        <v>988.5882436848152</v>
       </c>
       <c r="V18" t="n">
-        <v>853.8610766642905</v>
+        <v>988.5882436848152</v>
       </c>
       <c r="W18" t="n">
-        <v>640.6279084006193</v>
+        <v>775.355075421144</v>
       </c>
       <c r="X18" t="n">
-        <v>464.3019265395121</v>
+        <v>775.355075421144</v>
       </c>
       <c r="Y18" t="n">
-        <v>464.3019265395121</v>
+        <v>615.953115784974</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.18590475116129</v>
+        <v>521.7062522455365</v>
       </c>
       <c r="C19" t="n">
-        <v>23.18590475116129</v>
+        <v>350.612879807253</v>
       </c>
       <c r="D19" t="n">
-        <v>23.18590475116129</v>
+        <v>350.612879807253</v>
       </c>
       <c r="E19" t="n">
-        <v>23.18590475116129</v>
+        <v>189.7020646755725</v>
       </c>
       <c r="F19" t="n">
-        <v>23.18590475116129</v>
+        <v>189.7020646755725</v>
       </c>
       <c r="G19" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="H19" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I19" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J19" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="K19" t="n">
-        <v>55.06479309712793</v>
+        <v>55.06479309712802</v>
       </c>
       <c r="L19" t="n">
-        <v>341.9903643927488</v>
+        <v>341.9903643927493</v>
       </c>
       <c r="M19" t="n">
-        <v>553.6313762183072</v>
+        <v>399.0917695062358</v>
       </c>
       <c r="N19" t="n">
-        <v>840.5569475139281</v>
+        <v>686.017340801857</v>
       </c>
       <c r="O19" t="n">
-        <v>1127.482518809549</v>
+        <v>972.9429120974783</v>
       </c>
       <c r="P19" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="Q19" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="R19" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S19" t="n">
-        <v>1159.295237558064</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="T19" t="n">
-        <v>1097.243274925137</v>
+        <v>922.8836679940526</v>
       </c>
       <c r="U19" t="n">
-        <v>814.4851764430816</v>
+        <v>746.4419508567718</v>
       </c>
       <c r="V19" t="n">
-        <v>540.5994313826036</v>
+        <v>746.4419508567718</v>
       </c>
       <c r="W19" t="n">
-        <v>261.5297668914779</v>
+        <v>746.4419508567718</v>
       </c>
       <c r="X19" t="n">
-        <v>23.18590475116129</v>
+        <v>746.4419508567718</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.18590475116129</v>
+        <v>521.7062522455365</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>608.6885499825071</v>
+        <v>608.6885499825075</v>
       </c>
       <c r="C20" t="n">
-        <v>608.6885499825071</v>
+        <v>315.9372273668345</v>
       </c>
       <c r="D20" t="n">
-        <v>608.6885499825071</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="E20" t="n">
-        <v>608.6885499825071</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="F20" t="n">
-        <v>608.6885499825071</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="G20" t="n">
-        <v>315.9372273668342</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="H20" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I20" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J20" t="n">
-        <v>86.75589536813391</v>
+        <v>86.75589536813357</v>
       </c>
       <c r="K20" t="n">
-        <v>202.5799323725125</v>
+        <v>202.5799323725122</v>
       </c>
       <c r="L20" t="n">
-        <v>361.2151056908532</v>
+        <v>361.215105690853</v>
       </c>
       <c r="M20" t="n">
-        <v>550.5534238979435</v>
+        <v>550.5534238979433</v>
       </c>
       <c r="N20" t="n">
         <v>744.8240264341691</v>
       </c>
       <c r="O20" t="n">
-        <v>922.8674667381975</v>
+        <v>922.8674667381978</v>
       </c>
       <c r="P20" t="n">
-        <v>1060.850518509236</v>
+        <v>1060.850518509237</v>
       </c>
       <c r="Q20" t="n">
-        <v>1144.960081572445</v>
+        <v>1144.960081572446</v>
       </c>
       <c r="R20" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S20" t="n">
-        <v>1159.295237558065</v>
+        <v>1116.481079048078</v>
       </c>
       <c r="T20" t="n">
-        <v>1159.295237558065</v>
+        <v>901.4398725981807</v>
       </c>
       <c r="U20" t="n">
-        <v>902.3656932095244</v>
+        <v>901.4398725981807</v>
       </c>
       <c r="V20" t="n">
-        <v>609.6143705938514</v>
+        <v>901.4398725981807</v>
       </c>
       <c r="W20" t="n">
-        <v>609.6143705938514</v>
+        <v>901.4398725981807</v>
       </c>
       <c r="X20" t="n">
-        <v>608.6885499825071</v>
+        <v>901.4398725981807</v>
       </c>
       <c r="Y20" t="n">
-        <v>608.6885499825071</v>
+        <v>608.6885499825075</v>
       </c>
     </row>
     <row r="21">
@@ -5816,67 +5816,67 @@
         <v>205.9676664386917</v>
       </c>
       <c r="E21" t="n">
-        <v>85.47485043101969</v>
+        <v>85.4748504310197</v>
       </c>
       <c r="F21" t="n">
-        <v>85.47485043101969</v>
+        <v>85.4748504310197</v>
       </c>
       <c r="G21" t="n">
-        <v>85.47485043101969</v>
+        <v>85.4748504310197</v>
       </c>
       <c r="H21" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I21" t="n">
-        <v>32.40338470811666</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J21" t="n">
-        <v>62.64400760396951</v>
+        <v>297.0949316216475</v>
       </c>
       <c r="K21" t="n">
-        <v>145.9827528021243</v>
+        <v>380.4336768198024</v>
       </c>
       <c r="L21" t="n">
-        <v>276.8026095288246</v>
+        <v>511.2535335465028</v>
       </c>
       <c r="M21" t="n">
-        <v>563.7281808244456</v>
+        <v>671.7536675823184</v>
       </c>
       <c r="N21" t="n">
-        <v>848.6083986751675</v>
+        <v>842.3372637738855</v>
       </c>
       <c r="O21" t="n">
-        <v>995.6600459243891</v>
+        <v>989.3889110231073</v>
       </c>
       <c r="P21" t="n">
-        <v>1105.85206531559</v>
+        <v>1099.580930414308</v>
       </c>
       <c r="Q21" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="R21" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S21" t="n">
-        <v>1067.572603671257</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="T21" t="n">
-        <v>911.760779655898</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="U21" t="n">
-        <v>714.46758641867</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="V21" t="n">
-        <v>500.7560594117037</v>
+        <v>945.5837105510993</v>
       </c>
       <c r="W21" t="n">
-        <v>456.8598954703536</v>
+        <v>732.3505422874281</v>
       </c>
       <c r="X21" t="n">
-        <v>456.8598954703536</v>
+        <v>597.1629281059402</v>
       </c>
       <c r="Y21" t="n">
-        <v>456.8598954703536</v>
+        <v>597.1629281059402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>182.6805494282513</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="C22" t="n">
-        <v>182.6805494282513</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="D22" t="n">
-        <v>23.18590475116129</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="E22" t="n">
-        <v>23.18590475116129</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="F22" t="n">
-        <v>23.18590475116129</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="G22" t="n">
-        <v>23.18590475116129</v>
+        <v>166.2653775389371</v>
       </c>
       <c r="H22" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="I22" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="J22" t="n">
-        <v>23.18590475116129</v>
+        <v>23.18590475116131</v>
       </c>
       <c r="K22" t="n">
-        <v>55.06479309712794</v>
+        <v>55.064793097128</v>
       </c>
       <c r="L22" t="n">
-        <v>341.990364392749</v>
+        <v>107.970642732246</v>
       </c>
       <c r="M22" t="n">
-        <v>628.9159356883699</v>
+        <v>394.8962140278672</v>
       </c>
       <c r="N22" t="n">
-        <v>687.8418950080826</v>
+        <v>681.8217853234885</v>
       </c>
       <c r="O22" t="n">
-        <v>974.7674663037036</v>
+        <v>968.7473566191097</v>
       </c>
       <c r="P22" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="Q22" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="R22" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="S22" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="T22" t="n">
-        <v>1159.295237558065</v>
+        <v>1159.295237558066</v>
       </c>
       <c r="U22" t="n">
-        <v>924.8297746709288</v>
+        <v>903.2306833509672</v>
       </c>
       <c r="V22" t="n">
-        <v>924.8297746709288</v>
+        <v>629.344938290489</v>
       </c>
       <c r="W22" t="n">
-        <v>645.7601101798032</v>
+        <v>629.344938290489</v>
       </c>
       <c r="X22" t="n">
-        <v>407.4162480394866</v>
+        <v>391.0010761501724</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.6805494282513</v>
+        <v>166.2653775389371</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1266.672740812035</v>
+        <v>1279.603067784</v>
       </c>
       <c r="C23" t="n">
-        <v>856.548150125305</v>
+        <v>1279.603067784</v>
       </c>
       <c r="D23" t="n">
-        <v>452.0842202183655</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E23" t="n">
-        <v>37.7440047352622</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F23" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G23" t="n">
         <v>37.7440047352622</v>
@@ -6025,16 +6025,16 @@
         <v>1887.20023676311</v>
       </c>
       <c r="V23" t="n">
-        <v>1887.20023676311</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="W23" t="n">
-        <v>1887.20023676311</v>
+        <v>1279.603067784</v>
       </c>
       <c r="X23" t="n">
-        <v>1887.20023676311</v>
+        <v>1279.603067784</v>
       </c>
       <c r="Y23" t="n">
-        <v>1676.893920476524</v>
+        <v>1279.603067784</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28095199337146</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J24" t="n">
-        <v>98.39707907527369</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K24" t="n">
-        <v>232.7978194276822</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L24" t="n">
-        <v>432.2768300808657</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M24" t="n">
-        <v>672.8989583058121</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N24" t="n">
-        <v>925.7251394622621</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O24" t="n">
-        <v>1148.012684561194</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P24" t="n">
-        <v>1318.588144890709</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q24" t="n">
         <v>1784.713972589205</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>448.2097111741947</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C25" t="n">
-        <v>290.1210832591188</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D25" t="n">
-        <v>290.1210832591188</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E25" t="n">
-        <v>290.1210832591188</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F25" t="n">
-        <v>290.1210832591188</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G25" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H25" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I25" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="J25" t="n">
-        <v>121.4466158487821</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K25" t="n">
-        <v>390.4060913956559</v>
+        <v>325.4047277643195</v>
       </c>
       <c r="L25" t="n">
-        <v>796.7049518888696</v>
+        <v>417.7244770225101</v>
       </c>
       <c r="M25" t="n">
-        <v>1240.329137432665</v>
+        <v>861.3486625663052</v>
       </c>
       <c r="N25" t="n">
-        <v>1671.857710071993</v>
+        <v>1292.877235205633</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>1691.624256672752</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>1755.500233375612</v>
       </c>
       <c r="Q25" t="n">
         <v>1887.20023676311</v>
@@ -6174,25 +6174,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S25" t="n">
-        <v>1887.20023676311</v>
+        <v>1759.47787492531</v>
       </c>
       <c r="T25" t="n">
-        <v>1651.944387871395</v>
+        <v>1524.222026033595</v>
       </c>
       <c r="U25" t="n">
-        <v>1651.944387871395</v>
+        <v>1241.478681432462</v>
       </c>
       <c r="V25" t="n">
-        <v>1378.058642810917</v>
+        <v>967.5929363719843</v>
       </c>
       <c r="W25" t="n">
-        <v>1098.988978319791</v>
+        <v>688.5232718808586</v>
       </c>
       <c r="X25" t="n">
-        <v>860.6451161794744</v>
+        <v>450.1794097405419</v>
       </c>
       <c r="Y25" t="n">
-        <v>635.9094175682391</v>
+        <v>225.4437111293066</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1263.036585644627</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="C26" t="n">
-        <v>1263.036585644627</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="D26" t="n">
-        <v>858.5726557376875</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="E26" t="n">
-        <v>444.2324402545842</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F26" t="n">
-        <v>444.2324402545842</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G26" t="n">
         <v>37.7440047352622</v>
@@ -6223,7 +6223,7 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J26" t="n">
         <v>151.4749218512231</v>
@@ -6253,25 +6253,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S26" t="n">
-        <v>1887.20023676311</v>
+        <v>1822.593589187897</v>
       </c>
       <c r="T26" t="n">
-        <v>1674.798689903264</v>
+        <v>1610.192042328051</v>
       </c>
       <c r="U26" t="n">
-        <v>1674.798689903264</v>
+        <v>1610.192042328051</v>
       </c>
       <c r="V26" t="n">
-        <v>1674.798689903264</v>
+        <v>1260.354487664532</v>
       </c>
       <c r="W26" t="n">
-        <v>1291.038389038433</v>
+        <v>1260.354487664532</v>
       </c>
       <c r="X26" t="n">
-        <v>1263.036585644627</v>
+        <v>859.7110898334845</v>
       </c>
       <c r="Y26" t="n">
-        <v>1263.036585644627</v>
+        <v>458.7744167815746</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>623.88061763002</v>
+        <v>632.4412287417762</v>
       </c>
       <c r="C27" t="n">
-        <v>489.8855463789657</v>
+        <v>498.4461574907219</v>
       </c>
       <c r="D27" t="n">
-        <v>372.9883885983581</v>
+        <v>381.5489997101143</v>
       </c>
       <c r="E27" t="n">
-        <v>252.4955725906861</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5356927731907</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G27" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H27" t="n">
         <v>37.7440047352622</v>
@@ -6308,22 +6308,22 @@
         <v>361.6332868996043</v>
       </c>
       <c r="K27" t="n">
-        <v>496.0340272520128</v>
+        <v>605.115743727732</v>
       </c>
       <c r="L27" t="n">
-        <v>695.5130379051964</v>
+        <v>804.5947543809154</v>
       </c>
       <c r="M27" t="n">
-        <v>936.1351661301428</v>
+        <v>1045.216882605862</v>
       </c>
       <c r="N27" t="n">
-        <v>1188.961347286593</v>
+        <v>1298.043063762312</v>
       </c>
       <c r="O27" t="n">
-        <v>1411.248892385525</v>
+        <v>1520.330608861244</v>
       </c>
       <c r="P27" t="n">
-        <v>1581.82435271504</v>
+        <v>1690.906069190759</v>
       </c>
       <c r="Q27" t="n">
         <v>1784.713972589205</v>
@@ -6332,25 +6332,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S27" t="n">
-        <v>1801.47043908421</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T27" t="n">
-        <v>1646.959067601334</v>
+        <v>1732.688865280234</v>
       </c>
       <c r="U27" t="n">
-        <v>1449.687100466378</v>
+        <v>1535.416898145278</v>
       </c>
       <c r="V27" t="n">
-        <v>1235.975573459411</v>
+        <v>1321.705371138311</v>
       </c>
       <c r="W27" t="n">
-        <v>1099.911591762884</v>
+        <v>1108.47220287464</v>
       </c>
       <c r="X27" t="n">
-        <v>923.5856099017766</v>
+        <v>932.1462210135328</v>
       </c>
       <c r="Y27" t="n">
-        <v>764.1836502656066</v>
+        <v>772.7442613773628</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>917.2544050800998</v>
+        <v>927.4309869158271</v>
       </c>
       <c r="C28" t="n">
-        <v>915.8322591546337</v>
+        <v>756.3376144775436</v>
       </c>
       <c r="D28" t="n">
         <v>756.3376144775436</v>
@@ -6384,25 +6384,25 @@
         <v>37.7440047352622</v>
       </c>
       <c r="J28" t="n">
-        <v>121.4466158487821</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K28" t="n">
-        <v>184.1258978099418</v>
+        <v>205.4831206951906</v>
       </c>
       <c r="L28" t="n">
-        <v>401.4391549413998</v>
+        <v>611.7819811884042</v>
       </c>
       <c r="M28" t="n">
-        <v>845.0633404851949</v>
+        <v>710.4398172179137</v>
       </c>
       <c r="N28" t="n">
-        <v>1276.591913124523</v>
+        <v>1141.968389857242</v>
       </c>
       <c r="O28" t="n">
-        <v>1675.338934591642</v>
+        <v>1540.715411324361</v>
       </c>
       <c r="P28" t="n">
-        <v>1739.214911294502</v>
+        <v>1865.488871500339</v>
       </c>
       <c r="Q28" t="n">
         <v>1887.20023676311</v>
@@ -6411,25 +6411,25 @@
         <v>1847.103336716822</v>
       </c>
       <c r="S28" t="n">
-        <v>1847.103336716822</v>
+        <v>1678.221080048314</v>
       </c>
       <c r="T28" t="n">
-        <v>1847.103336716822</v>
+        <v>1678.221080048314</v>
       </c>
       <c r="U28" t="n">
-        <v>1847.103336716822</v>
+        <v>1395.477735447181</v>
       </c>
       <c r="V28" t="n">
-        <v>1847.103336716822</v>
+        <v>1121.591990386703</v>
       </c>
       <c r="W28" t="n">
-        <v>1568.033672225696</v>
+        <v>1115.130693309872</v>
       </c>
       <c r="X28" t="n">
-        <v>1329.689810085379</v>
+        <v>1115.130693309872</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.954111474144</v>
+        <v>1115.130693309872</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1392.738531588259</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="C29" t="n">
-        <v>982.6139409015287</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="D29" t="n">
-        <v>982.6139409015287</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E29" t="n">
-        <v>568.2737254184254</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F29" t="n">
-        <v>147.243313372113</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G29" t="n">
         <v>37.7440047352622</v>
@@ -6460,7 +6460,7 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I29" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J29" t="n">
         <v>151.4749218512231</v>
@@ -6472,13 +6472,13 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655645</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
@@ -6490,25 +6490,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U29" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V29" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="W29" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="X29" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="Y29" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909648</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>683.0535714964635</v>
+        <v>623.88061763002</v>
       </c>
       <c r="C30" t="n">
-        <v>549.0585002454092</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D30" t="n">
-        <v>432.1613424648016</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E30" t="n">
-        <v>311.6685264571296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F30" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G30" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H30" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28095199337146</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J30" t="n">
-        <v>98.39707907527369</v>
+        <v>174.2084051059681</v>
       </c>
       <c r="K30" t="n">
-        <v>565.4791376741434</v>
+        <v>308.6091454583766</v>
       </c>
       <c r="L30" t="n">
-        <v>764.9581483273269</v>
+        <v>508.0881561115601</v>
       </c>
       <c r="M30" t="n">
-        <v>1005.580276552273</v>
+        <v>748.7102843365066</v>
       </c>
       <c r="N30" t="n">
-        <v>1258.406457708723</v>
+        <v>1001.536465492956</v>
       </c>
       <c r="O30" t="n">
-        <v>1480.694002807656</v>
+        <v>1223.824010591889</v>
       </c>
       <c r="P30" t="n">
-        <v>1651.26946313717</v>
+        <v>1690.906069190759</v>
       </c>
       <c r="Q30" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R30" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S30" t="n">
-        <v>1887.20023676311</v>
+        <v>1878.639625651354</v>
       </c>
       <c r="T30" t="n">
-        <v>1732.688865280234</v>
+        <v>1724.128254168478</v>
       </c>
       <c r="U30" t="n">
-        <v>1586.029240899965</v>
+        <v>1526.856287033521</v>
       </c>
       <c r="V30" t="n">
-        <v>1372.317713892999</v>
+        <v>1313.144760026555</v>
       </c>
       <c r="W30" t="n">
-        <v>1159.084545629327</v>
+        <v>1099.911591762884</v>
       </c>
       <c r="X30" t="n">
-        <v>982.7585637682201</v>
+        <v>923.5856099017766</v>
       </c>
       <c r="Y30" t="n">
-        <v>823.3566041320502</v>
+        <v>764.1836502656066</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>761.383690571828</v>
+        <v>514.1430932602901</v>
       </c>
       <c r="C31" t="n">
-        <v>590.2903181335445</v>
+        <v>343.0497208220066</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7956734564545</v>
+        <v>343.0497208220066</v>
       </c>
       <c r="E31" t="n">
-        <v>430.7956734564545</v>
+        <v>343.0497208220066</v>
       </c>
       <c r="F31" t="n">
-        <v>430.7956734564545</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G31" t="n">
-        <v>264.550001348964</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H31" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I31" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="J31" t="n">
-        <v>121.4466158487821</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K31" t="n">
-        <v>184.1258978099418</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L31" t="n">
-        <v>276.4456470681324</v>
+        <v>525.4233946718191</v>
       </c>
       <c r="M31" t="n">
-        <v>584.1658570120767</v>
+        <v>969.0475802156142</v>
       </c>
       <c r="N31" t="n">
-        <v>1015.694429651405</v>
+        <v>1400.576152854943</v>
       </c>
       <c r="O31" t="n">
-        <v>1414.441451118524</v>
+        <v>1799.323174322062</v>
       </c>
       <c r="P31" t="n">
-        <v>1739.214911294502</v>
+        <v>1865.488871500339</v>
       </c>
       <c r="Q31" t="n">
         <v>1887.20023676311</v>
@@ -6657,16 +6657,16 @@
         <v>1369.201043270262</v>
       </c>
       <c r="V31" t="n">
-        <v>1265.189053674189</v>
+        <v>1369.201043270262</v>
       </c>
       <c r="W31" t="n">
-        <v>986.1193891830633</v>
+        <v>1090.131378779137</v>
       </c>
       <c r="X31" t="n">
-        <v>986.1193891830633</v>
+        <v>926.5784982655698</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.383690571828</v>
+        <v>701.8427996543345</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>873.114632264678</v>
+        <v>447.8685954219921</v>
       </c>
       <c r="C32" t="n">
-        <v>873.114632264678</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D32" t="n">
-        <v>873.114632264678</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E32" t="n">
-        <v>458.7744167815746</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F32" t="n">
         <v>37.7440047352622</v>
@@ -6697,13 +6697,13 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J32" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L32" t="n">
         <v>594.3775951131297</v>
@@ -6736,16 +6736,16 @@
         <v>1674.798689903264</v>
       </c>
       <c r="V32" t="n">
-        <v>1674.798689903264</v>
+        <v>1324.961135239745</v>
       </c>
       <c r="W32" t="n">
-        <v>1674.798689903264</v>
+        <v>1249.448666304949</v>
       </c>
       <c r="X32" t="n">
-        <v>1274.155292072217</v>
+        <v>848.8052684739021</v>
       </c>
       <c r="Y32" t="n">
-        <v>1274.155292072217</v>
+        <v>447.8685954219921</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628764</v>
       </c>
       <c r="C33" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118221</v>
       </c>
       <c r="D33" t="n">
-        <v>432.1613424648016</v>
+        <v>295.8192020312145</v>
       </c>
       <c r="E33" t="n">
-        <v>311.6685264571296</v>
+        <v>175.3263860235425</v>
       </c>
       <c r="F33" t="n">
-        <v>202.7086466396342</v>
+        <v>66.36650620604706</v>
       </c>
       <c r="G33" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H33" t="n">
         <v>37.7440047352622</v>
@@ -6812,19 +6812,19 @@
         <v>1646.959067601334</v>
       </c>
       <c r="U33" t="n">
-        <v>1586.029240899965</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V33" t="n">
-        <v>1372.317713892999</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W33" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X33" t="n">
-        <v>982.7585637682201</v>
+        <v>846.416423334633</v>
       </c>
       <c r="Y33" t="n">
-        <v>823.3566041320502</v>
+        <v>687.014463698463</v>
       </c>
     </row>
     <row r="34">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>290.1210832591188</v>
+        <v>695.4885090898067</v>
       </c>
       <c r="C34" t="n">
-        <v>290.1210832591188</v>
+        <v>524.3951366515232</v>
       </c>
       <c r="D34" t="n">
-        <v>290.1210832591188</v>
+        <v>364.9004919744332</v>
       </c>
       <c r="E34" t="n">
-        <v>290.1210832591188</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="F34" t="n">
-        <v>290.1210832591188</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G34" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H34" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I34" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="J34" t="n">
-        <v>121.4466158487821</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K34" t="n">
-        <v>390.4060913956559</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L34" t="n">
-        <v>796.7049518888696</v>
+        <v>525.4233946718191</v>
       </c>
       <c r="M34" t="n">
-        <v>1042.474118665499</v>
+        <v>969.0475802156142</v>
       </c>
       <c r="N34" t="n">
-        <v>1141.968389857242</v>
+        <v>1400.576152854943</v>
       </c>
       <c r="O34" t="n">
-        <v>1540.715411324361</v>
+        <v>1799.323174322062</v>
       </c>
       <c r="P34" t="n">
         <v>1865.488871500339</v>
@@ -6885,25 +6885,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S34" t="n">
-        <v>1737.969208388688</v>
+        <v>1725.717309783449</v>
       </c>
       <c r="T34" t="n">
-        <v>1502.713359496973</v>
+        <v>1490.461460891734</v>
       </c>
       <c r="U34" t="n">
-        <v>1219.970014895841</v>
+        <v>1207.718116290601</v>
       </c>
       <c r="V34" t="n">
-        <v>1219.970014895841</v>
+        <v>933.8323712301233</v>
       </c>
       <c r="W34" t="n">
-        <v>940.900350404715</v>
+        <v>933.8323712301233</v>
       </c>
       <c r="X34" t="n">
-        <v>702.5564882643985</v>
+        <v>695.4885090898067</v>
       </c>
       <c r="Y34" t="n">
-        <v>477.8207896531632</v>
+        <v>695.4885090898067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1476.97905709862</v>
+        <v>633.22041213306</v>
       </c>
       <c r="C35" t="n">
-        <v>1066.85446641189</v>
+        <v>633.22041213306</v>
       </c>
       <c r="D35" t="n">
-        <v>1066.85446641189</v>
+        <v>633.22041213306</v>
       </c>
       <c r="E35" t="n">
-        <v>652.5142509287871</v>
+        <v>633.22041213306</v>
       </c>
       <c r="F35" t="n">
-        <v>231.4838388824746</v>
+        <v>212.1900000867475</v>
       </c>
       <c r="G35" t="n">
         <v>37.74400473526219</v>
@@ -6943,16 +6943,16 @@
         <v>342.4771847987903</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
         <v>1687.808675484973</v>
@@ -6967,22 +6967,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T35" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U35" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="V35" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.20023676311</v>
+        <v>1034.15708518497</v>
       </c>
       <c r="X35" t="n">
-        <v>1887.20023676311</v>
+        <v>1034.15708518497</v>
       </c>
       <c r="Y35" t="n">
-        <v>1887.20023676311</v>
+        <v>633.22041213306</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628759</v>
       </c>
       <c r="C36" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118216</v>
       </c>
       <c r="D36" t="n">
-        <v>432.1613424648016</v>
+        <v>295.819202031214</v>
       </c>
       <c r="E36" t="n">
-        <v>311.6685264571296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F36" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G36" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H36" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28095199337145</v>
+        <v>57.84875584306885</v>
       </c>
       <c r="J36" t="n">
         <v>185.4105646518805</v>
@@ -7043,25 +7043,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S36" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.47043908421</v>
       </c>
       <c r="T36" t="n">
-        <v>1783.301208034922</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U36" t="n">
-        <v>1586.029240899965</v>
+        <v>1449.687100466377</v>
       </c>
       <c r="V36" t="n">
-        <v>1372.317713892999</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W36" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X36" t="n">
-        <v>982.7585637682201</v>
+        <v>846.4164233346326</v>
       </c>
       <c r="Y36" t="n">
-        <v>823.3566041320502</v>
+        <v>687.0144636984626</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>748.3721484115914</v>
+        <v>796.7409811371286</v>
       </c>
       <c r="C37" t="n">
-        <v>577.2787759733079</v>
+        <v>625.6476086988451</v>
       </c>
       <c r="D37" t="n">
-        <v>577.2787759733079</v>
+        <v>625.6476086988451</v>
       </c>
       <c r="E37" t="n">
-        <v>416.3679608416274</v>
+        <v>464.7367935671646</v>
       </c>
       <c r="F37" t="n">
-        <v>251.7368349522187</v>
+        <v>300.1056676777559</v>
       </c>
       <c r="G37" t="n">
-        <v>85.49116284472819</v>
+        <v>133.8599955702654</v>
       </c>
       <c r="H37" t="n">
-        <v>85.49116284472819</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
-        <v>56.4452522174457</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K37" t="n">
-        <v>119.1245341786054</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L37" t="n">
-        <v>485.5080209825667</v>
+        <v>482.7258406538465</v>
       </c>
       <c r="M37" t="n">
-        <v>584.1658570120762</v>
+        <v>926.3500261976417</v>
       </c>
       <c r="N37" t="n">
-        <v>1015.694429651405</v>
+        <v>1357.87859883697</v>
       </c>
       <c r="O37" t="n">
-        <v>1414.441451118523</v>
+        <v>1441.550860885348</v>
       </c>
       <c r="P37" t="n">
-        <v>1739.214911294502</v>
+        <v>1766.324321061327</v>
       </c>
       <c r="Q37" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="R37" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S37" t="n">
-        <v>1678.221080048313</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T37" t="n">
-        <v>1678.221080048313</v>
+        <v>1483.062131202886</v>
       </c>
       <c r="U37" t="n">
-        <v>1678.221080048313</v>
+        <v>1483.062131202886</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.221080048313</v>
+        <v>1209.176386142408</v>
       </c>
       <c r="W37" t="n">
-        <v>1399.151415557188</v>
+        <v>1209.176386142408</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.807553416871</v>
+        <v>1209.176386142408</v>
       </c>
       <c r="Y37" t="n">
-        <v>936.0718548056358</v>
+        <v>984.440687531173</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1273.362937375244</v>
+        <v>1264.577510238774</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2383466885142</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D38" t="n">
-        <v>458.7744167815746</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E38" t="n">
         <v>458.7744167815746</v>
       </c>
       <c r="F38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526157</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512225</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K38" t="n">
-        <v>342.4771847987897</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L38" t="n">
-        <v>594.377595113129</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655634</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P38" t="n">
-        <v>1687.808675484972</v>
+        <v>1687.808675484973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R38" t="n">
         <v>1887.20023676311</v>
@@ -7204,22 +7204,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U38" t="n">
-        <v>1630.318932909647</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="V38" t="n">
-        <v>1630.318932909647</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="W38" t="n">
-        <v>1630.318932909647</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="X38" t="n">
-        <v>1630.318932909647</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="Y38" t="n">
-        <v>1630.318932909647</v>
+        <v>1674.798689903264</v>
       </c>
     </row>
     <row r="39">
@@ -7244,43 +7244,43 @@
         <v>202.7086466396342</v>
       </c>
       <c r="G39" t="n">
-        <v>96.91695860170567</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I39" t="n">
-        <v>57.84875584306885</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J39" t="n">
-        <v>117.9648829249711</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K39" t="n">
-        <v>252.3656232773796</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L39" t="n">
-        <v>451.8446339305631</v>
+        <v>675.945234055499</v>
       </c>
       <c r="M39" t="n">
-        <v>692.4667621555095</v>
+        <v>916.5673622804454</v>
       </c>
       <c r="N39" t="n">
-        <v>945.2929433119594</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O39" t="n">
-        <v>1167.580488410892</v>
+        <v>1391.681088535828</v>
       </c>
       <c r="P39" t="n">
-        <v>1338.155948740407</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q39" t="n">
-        <v>1805.238007339276</v>
+        <v>1872.683689066186</v>
       </c>
       <c r="R39" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S39" t="n">
-        <v>1801.47043908421</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T39" t="n">
         <v>1783.301208034922</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>766.5201717841467</v>
+        <v>534.5776939581261</v>
       </c>
       <c r="C40" t="n">
-        <v>595.4267993458632</v>
+        <v>363.4843215198426</v>
       </c>
       <c r="D40" t="n">
-        <v>595.4267993458632</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="E40" t="n">
-        <v>595.4267993458632</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="F40" t="n">
-        <v>430.7956734564545</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G40" t="n">
-        <v>264.550001348964</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H40" t="n">
-        <v>123.8754111516283</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J40" t="n">
-        <v>121.4466158487821</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K40" t="n">
-        <v>184.1258978099418</v>
+        <v>325.4047277643195</v>
       </c>
       <c r="L40" t="n">
-        <v>590.4247583031554</v>
+        <v>731.7035882575332</v>
       </c>
       <c r="M40" t="n">
-        <v>916.2001584596617</v>
+        <v>916.2001584596621</v>
       </c>
       <c r="N40" t="n">
         <v>1015.694429651405</v>
       </c>
       <c r="O40" t="n">
-        <v>1414.441451118523</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P40" t="n">
         <v>1739.214911294502</v>
@@ -7362,22 +7362,22 @@
         <v>1718.317980094602</v>
       </c>
       <c r="T40" t="n">
-        <v>1483.062131202886</v>
+        <v>1483.062131202887</v>
       </c>
       <c r="U40" t="n">
-        <v>1483.062131202886</v>
+        <v>1483.062131202887</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.176386142408</v>
+        <v>1464.426625594848</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.176386142408</v>
+        <v>1185.356961103722</v>
       </c>
       <c r="X40" t="n">
-        <v>1178.955576789426</v>
+        <v>947.0130989634058</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.219878178191</v>
+        <v>722.2774003521705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1476.97905709862</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="C41" t="n">
-        <v>1066.85446641189</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="D41" t="n">
-        <v>1066.85446641189</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="E41" t="n">
-        <v>652.5142509287871</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F41" t="n">
-        <v>231.4838388824746</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G41" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H41" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J41" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L41" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P41" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R41" t="n">
         <v>1887.20023676311</v>
@@ -7441,22 +7441,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V41" t="n">
-        <v>1887.20023676311</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="W41" t="n">
-        <v>1887.20023676311</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="X41" t="n">
-        <v>1887.20023676311</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.20023676311</v>
+        <v>1068.079831386282</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>683.0535714964635</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="C42" t="n">
         <v>549.0585002454092</v>
@@ -7481,61 +7481,61 @@
         <v>202.7086466396342</v>
       </c>
       <c r="G42" t="n">
-        <v>96.91695860170567</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H42" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28095199337145</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J42" t="n">
-        <v>98.39707907527368</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K42" t="n">
-        <v>232.7978194276822</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L42" t="n">
-        <v>432.2768300808657</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M42" t="n">
-        <v>672.8989583058121</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N42" t="n">
-        <v>925.7251394622621</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O42" t="n">
-        <v>1148.012684561194</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P42" t="n">
-        <v>1318.588144890709</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q42" t="n">
-        <v>1784.713972589204</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R42" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S42" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.47043908421</v>
       </c>
       <c r="T42" t="n">
-        <v>1732.688865280234</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U42" t="n">
-        <v>1535.416898145277</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V42" t="n">
-        <v>1321.705371138311</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W42" t="n">
-        <v>1108.47220287464</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X42" t="n">
-        <v>932.1462210135323</v>
+        <v>848.7634925171658</v>
       </c>
       <c r="Y42" t="n">
-        <v>823.3566041320502</v>
+        <v>689.3615328809958</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1086.925631592917</v>
+        <v>208.8373771735457</v>
       </c>
       <c r="C43" t="n">
-        <v>915.8322591546337</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D43" t="n">
-        <v>756.3376144775436</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E43" t="n">
-        <v>595.4267993458632</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F43" t="n">
-        <v>430.7956734564545</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G43" t="n">
-        <v>264.550001348964</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H43" t="n">
-        <v>123.8754111516283</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J43" t="n">
         <v>56.4452522174457</v>
@@ -7575,16 +7575,16 @@
         <v>325.4047277643195</v>
       </c>
       <c r="L43" t="n">
-        <v>731.7035882575332</v>
+        <v>417.7244770225101</v>
       </c>
       <c r="M43" t="n">
-        <v>830.3614242870427</v>
+        <v>861.3486625663052</v>
       </c>
       <c r="N43" t="n">
-        <v>1261.889996926371</v>
+        <v>1292.877235205633</v>
       </c>
       <c r="O43" t="n">
-        <v>1660.63701839349</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P43" t="n">
         <v>1739.214911294502</v>
@@ -7593,28 +7593,28 @@
         <v>1887.20023676311</v>
       </c>
       <c r="R43" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S43" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T43" t="n">
-        <v>1611.847487825106</v>
+        <v>1651.944387871395</v>
       </c>
       <c r="U43" t="n">
-        <v>1329.104143223973</v>
+        <v>1369.201043270262</v>
       </c>
       <c r="V43" t="n">
-        <v>1329.104143223973</v>
+        <v>1095.315298209784</v>
       </c>
       <c r="W43" t="n">
-        <v>1329.104143223973</v>
+        <v>816.2456337186586</v>
       </c>
       <c r="X43" t="n">
-        <v>1311.661330204152</v>
+        <v>621.2727821788254</v>
       </c>
       <c r="Y43" t="n">
-        <v>1086.925631592917</v>
+        <v>396.5370835675901</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1887.20023676311</v>
+        <v>1263.036585644627</v>
       </c>
       <c r="C44" t="n">
-        <v>1477.07564607638</v>
+        <v>1263.036585644627</v>
       </c>
       <c r="D44" t="n">
-        <v>1072.61171616944</v>
+        <v>858.5726557376875</v>
       </c>
       <c r="E44" t="n">
-        <v>658.2715006863368</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F44" t="n">
-        <v>237.2410886400244</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G44" t="n">
-        <v>237.2410886400244</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H44" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526214</v>
       </c>
       <c r="J44" t="n">
         <v>151.474921851223</v>
       </c>
       <c r="K44" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987902</v>
       </c>
       <c r="L44" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131295</v>
       </c>
       <c r="M44" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655639</v>
       </c>
       <c r="N44" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P44" t="n">
         <v>1687.808675484973</v>
@@ -7687,13 +7687,13 @@
         <v>1887.20023676311</v>
       </c>
       <c r="W44" t="n">
-        <v>1887.20023676311</v>
+        <v>1503.439935898278</v>
       </c>
       <c r="X44" t="n">
-        <v>1887.20023676311</v>
+        <v>1503.439935898278</v>
       </c>
       <c r="Y44" t="n">
-        <v>1887.20023676311</v>
+        <v>1503.439935898278</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628759</v>
       </c>
       <c r="C45" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118216</v>
       </c>
       <c r="D45" t="n">
-        <v>432.1613424648016</v>
+        <v>295.819202031214</v>
       </c>
       <c r="E45" t="n">
-        <v>311.6685264571296</v>
+        <v>175.326386023542</v>
       </c>
       <c r="F45" t="n">
-        <v>202.7086466396342</v>
+        <v>175.326386023542</v>
       </c>
       <c r="G45" t="n">
-        <v>96.91695860170567</v>
+        <v>69.53469798561352</v>
       </c>
       <c r="H45" t="n">
         <v>37.74400473526219</v>
@@ -7727,52 +7727,52 @@
         <v>38.28095199337145</v>
       </c>
       <c r="J45" t="n">
-        <v>138.0336851288619</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K45" t="n">
-        <v>605.1157437277316</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L45" t="n">
-        <v>804.594754380915</v>
+        <v>675.9452340554988</v>
       </c>
       <c r="M45" t="n">
-        <v>1045.216882605861</v>
+        <v>916.5673622804452</v>
       </c>
       <c r="N45" t="n">
-        <v>1298.043063762311</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O45" t="n">
-        <v>1520.330608861244</v>
+        <v>1391.681088535827</v>
       </c>
       <c r="P45" t="n">
-        <v>1690.906069190758</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q45" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066186</v>
       </c>
       <c r="R45" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S45" t="n">
-        <v>1887.20023676311</v>
+        <v>1801.47043908421</v>
       </c>
       <c r="T45" t="n">
-        <v>1732.688865280234</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U45" t="n">
-        <v>1535.416898145277</v>
+        <v>1449.687100466377</v>
       </c>
       <c r="V45" t="n">
-        <v>1321.705371138311</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W45" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X45" t="n">
-        <v>982.7585637682201</v>
+        <v>846.4164233346326</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.3566041320502</v>
+        <v>687.0144636984626</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>620.510724611001</v>
+        <v>693.8739628717249</v>
       </c>
       <c r="C46" t="n">
-        <v>449.4173521727176</v>
+        <v>522.7805904334414</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4173521727176</v>
+        <v>363.2859457563515</v>
       </c>
       <c r="E46" t="n">
-        <v>288.5065370410371</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="F46" t="n">
-        <v>123.8754111516283</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G46" t="n">
-        <v>123.8754111516283</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H46" t="n">
-        <v>123.8754111516283</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I46" t="n">
         <v>37.74400473526219</v>
       </c>
       <c r="J46" t="n">
-        <v>121.4466158487821</v>
+        <v>56.44525221744568</v>
       </c>
       <c r="K46" t="n">
-        <v>390.4060913956559</v>
+        <v>192.5510726284902</v>
       </c>
       <c r="L46" t="n">
-        <v>796.7049518888696</v>
+        <v>598.8499331217038</v>
       </c>
       <c r="M46" t="n">
-        <v>895.3627879183791</v>
+        <v>1042.474118665499</v>
       </c>
       <c r="N46" t="n">
-        <v>1326.891360557707</v>
+        <v>1141.968389857242</v>
       </c>
       <c r="O46" t="n">
-        <v>1414.441451118523</v>
+        <v>1540.715411324361</v>
       </c>
       <c r="P46" t="n">
-        <v>1739.214911294502</v>
+        <v>1865.488871500339</v>
       </c>
       <c r="Q46" t="n">
         <v>1887.20023676311</v>
@@ -7833,25 +7833,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S46" t="n">
-        <v>1887.20023676311</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T46" t="n">
-        <v>1651.944387871394</v>
+        <v>1483.062131202886</v>
       </c>
       <c r="U46" t="n">
-        <v>1369.201043270262</v>
+        <v>1483.062131202886</v>
       </c>
       <c r="V46" t="n">
-        <v>1312.015794107406</v>
+        <v>1483.062131202886</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.946129616281</v>
+        <v>1203.992466711761</v>
       </c>
       <c r="X46" t="n">
-        <v>1032.946129616281</v>
+        <v>1106.309367877005</v>
       </c>
       <c r="Y46" t="n">
-        <v>808.2104310050454</v>
+        <v>881.5736692657692</v>
       </c>
     </row>
   </sheetData>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K5" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L5" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M5" t="n">
         <v>1.857412192921856</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P5" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q5" t="n">
         <v>33.80255651301093</v>
@@ -8376,10 +8376,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K7" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L7" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M7" t="n">
         <v>19.6511016040668</v>
@@ -8455,10 +8455,10 @@
         <v>30.09747728131218</v>
       </c>
       <c r="K8" t="n">
-        <v>21.58238750890048</v>
+        <v>23.35545798596168</v>
       </c>
       <c r="L8" t="n">
-        <v>13.45175532158187</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M8" t="n">
         <v>0.03910817678591627</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5.558304884465429</v>
+        <v>3.710578808370073</v>
       </c>
       <c r="P8" t="n">
         <v>17.28093897160524</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.68429818395125</v>
+        <v>34.5320242600466</v>
       </c>
       <c r="R8" t="n">
         <v>53.95236302478607</v>
@@ -8613,7 +8613,7 @@
         <v>36.4387608801497</v>
       </c>
       <c r="K10" t="n">
-        <v>24.57360769300592</v>
+        <v>26.42133376910127</v>
       </c>
       <c r="L10" t="n">
         <v>21.05929355704222</v>
@@ -8622,13 +8622,13 @@
         <v>18.92297028778722</v>
       </c>
       <c r="N10" t="n">
-        <v>17.03165241025344</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O10" t="n">
-        <v>22.40367010010781</v>
+        <v>24.17674057716901</v>
       </c>
       <c r="P10" t="n">
-        <v>28.81601530081436</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q10" t="n">
         <v>41.41190018666367</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.45487261893134</v>
+        <v>10.45487261893133</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>157.6825399686066</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>94.78164071413607</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.168282955748339</v>
+        <v>11.50276265401369</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04210479782581444</v>
+        <v>0.04210479782578602</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>169.5868622953201</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>230.3026383595032</v>
+        <v>230.3026383595036</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>243.1562741743558</v>
       </c>
       <c r="P13" t="n">
-        <v>257.6897500475815</v>
+        <v>184.1203381685465</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4924975523096649</v>
+        <v>0.4924975523096293</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>159.4635783516873</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>117.5171465697514</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>125.636448297885</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.168282955748346</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>236.3835572328313</v>
+        <v>236.3835572328316</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>63.09766288826832</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>243.1562741743556</v>
+        <v>97.89010515786279</v>
       </c>
       <c r="P16" t="n">
-        <v>257.6897500475815</v>
+        <v>257.6897500475819</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4924975523096791</v>
+        <v>0.4924975523096222</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>159.4635783516869</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>127.7024618785914</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>115.451132989045</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.168282955748339</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04210479782581444</v>
+        <v>0.04210479782577892</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>236.3835572328312</v>
+        <v>236.3835572328315</v>
       </c>
       <c r="M19" t="n">
-        <v>156.1006128404767</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>230.3026383595032</v>
+        <v>230.3026383595035</v>
       </c>
       <c r="O19" t="n">
-        <v>243.1562741743556</v>
+        <v>243.1562741743558</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>156.1006128404769</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4924975523096649</v>
+        <v>0.4924975523096222</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>10.45487261893133</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>127.7024618785915</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>115.4511329890453</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.33447969826539</v>
       </c>
       <c r="R21" t="n">
-        <v>5.168282955748339</v>
+        <v>5.16828295574831</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04210479782581444</v>
+        <v>0.04210479782578602</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>236.3835572328314</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>232.1456224061965</v>
+        <v>232.1456224061966</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>230.3026383595036</v>
       </c>
       <c r="O22" t="n">
-        <v>243.1562741743557</v>
+        <v>243.1562741743558</v>
       </c>
       <c r="P22" t="n">
-        <v>154.2576287937837</v>
+        <v>160.3385476671117</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4924975523096649</v>
+        <v>0.4924975523096293</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>376.0787114141917</v>
+        <v>110.1835519956759</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9810,13 +9810,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>46.5484067445534</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>111.099634469421</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>110.183551995676</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1835519956759</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>87.2308954712981</v>
       </c>
       <c r="L28" t="n">
-        <v>126.256068558856</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>56.81163856666362</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0417356024861</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>299.50161441349</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.895275283404</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>211.1741150650855</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>2.312848965068255</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>148.5973037849698</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>2.312848965068255</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>87.89240967334027</v>
+        <v>68.12695123930249</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>276.832058127041</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>100.1662125646587</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>377.044601212549</v>
+        <v>218.807309901412</v>
       </c>
       <c r="R39" t="n">
-        <v>68.12695123930249</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>229.4116809363603</v>
+        <v>86.70579209355495</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>376.0787114141912</v>
+        <v>110.1835519956759</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11223,19 +11223,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>38.27470087324443</v>
       </c>
       <c r="P43" t="n">
-        <v>14.85042040217324</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>40.0369758117053</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0417356024859</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>218.8073099014118</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>74.16822065644929</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.916998497411683</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.120287322410856</v>
+        <v>4.120287322410832</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>4.271241791749205</v>
       </c>
       <c r="C8" t="n">
         <v>4.175618703767199</v>
@@ -23029,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.988626808317491</v>
+        <v>8.349087252176886</v>
       </c>
       <c r="F8" t="n">
-        <v>14.97238184975394</v>
+        <v>15.61192140589455</v>
       </c>
       <c r="G8" t="n">
-        <v>2.262205923848487</v>
+        <v>4.109931999943843</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>116.2951584783285</v>
+        <v>116.2951584783282</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>154.9200020179865</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>126.9962985363333</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>113.1967179012034</v>
+        <v>403.0205272907195</v>
       </c>
       <c r="H11" t="n">
-        <v>291.2037332982331</v>
+        <v>1.379923908716762</v>
       </c>
       <c r="I11" t="n">
-        <v>23.01492212038956</v>
+        <v>23.01492212038952</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.0017137399449</v>
+        <v>54.61569681505751</v>
       </c>
       <c r="T11" t="n">
-        <v>212.8907943853985</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3602489050548</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>56.51536972736773</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23345,16 +23345,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>97.71138286164073</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>61.6660562230598</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>90.80540754793927</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>154.2537057752056</v>
@@ -23396,7 +23396,7 @@
         <v>195.3202613048557</v>
       </c>
       <c r="V12" t="n">
-        <v>30.05197934454952</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>64.60180563747667</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>164.850998325167</v>
       </c>
       <c r="H13" t="n">
-        <v>141.6486780598981</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>93.32305563756462</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.73642572823219</v>
+        <v>51.73642572823218</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>171.8601604071551</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9305174972346</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23481,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>53.35818608092131</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>173.7614555899665</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>110.595481218354</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>113.1967179012034</v>
+        <v>403.0205272907195</v>
       </c>
       <c r="H14" t="n">
-        <v>1.379923908717103</v>
+        <v>1.379923908716648</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.01492212038951</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.0017137399449</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.8907943853985</v>
+        <v>19.15213633059571</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3602489050548</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>56.51536972736761</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>61.66605622305981</v>
+        <v>44.62252534956833</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>154.2537057752056</v>
       </c>
       <c r="U15" t="n">
-        <v>38.68002887578785</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.850998325167</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.648678059898</v>
       </c>
       <c r="I16" t="n">
-        <v>93.32305563756464</v>
+        <v>93.32305563756461</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.7364257282322</v>
+        <v>51.73642572823217</v>
       </c>
       <c r="S16" t="n">
         <v>171.8601604071551</v>
       </c>
       <c r="T16" t="n">
-        <v>91.88855167944229</v>
+        <v>234.0474538683727</v>
       </c>
       <c r="U16" t="n">
         <v>279.9305174972346</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>176.8280021706848</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23737,7 +23737,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>110.595481218354</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23749,10 +23749,10 @@
         <v>403.0205272907195</v>
       </c>
       <c r="H17" t="n">
-        <v>290.2871708930023</v>
+        <v>291.2037332982331</v>
       </c>
       <c r="I17" t="n">
-        <v>23.01492212038956</v>
+        <v>23.01492212038951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.0017137399449</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.8907943853985</v>
+        <v>19.15213633059594</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>56.51536972736807</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>90.09888846666672</v>
       </c>
       <c r="X17" t="n">
-        <v>106.8131544632209</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>107.1034969318744</v>
       </c>
     </row>
     <row r="18">
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.5128457284718</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>61.6660562230598</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>154.2537057752056</v>
+        <v>76.05918938862712</v>
       </c>
       <c r="U18" t="n">
         <v>195.3202613048557</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.850998325167</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>141.6486780598981</v>
+        <v>141.648678059898</v>
       </c>
       <c r="I19" t="n">
-        <v>93.32305563756464</v>
+        <v>93.32305563756461</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>51.73642572823219</v>
+        <v>51.73642572823217</v>
       </c>
       <c r="S19" t="n">
         <v>171.8601604071551</v>
       </c>
       <c r="T19" t="n">
-        <v>172.6160108617746</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.2532175313266</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>116.1995353903462</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>110.5954812183537</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>113.1967179012033</v>
+        <v>403.0205272907195</v>
       </c>
       <c r="H20" t="n">
-        <v>1.379923908716989</v>
+        <v>291.2037332982331</v>
       </c>
       <c r="I20" t="n">
-        <v>23.01492212038956</v>
+        <v>23.01492212038952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.0017137399449</v>
+        <v>54.61569681505751</v>
       </c>
       <c r="T20" t="n">
-        <v>212.8907943853985</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3602489050548</v>
       </c>
       <c r="V20" t="n">
-        <v>56.51536972736795</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>395.7204014475061</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>107.1034969318744</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>90.80540754793925</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.2537057752056</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3202613048557</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>167.6436342790979</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>40.72698400282312</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24132,7 +24132,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24144,10 +24144,10 @@
         <v>164.850998325167</v>
       </c>
       <c r="H22" t="n">
-        <v>141.6486780598981</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>93.32305563756464</v>
+        <v>93.32305563756462</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.73642572823219</v>
+        <v>51.73642572823218</v>
       </c>
       <c r="S22" t="n">
         <v>171.8601604071551</v>
@@ -24183,13 +24183,13 @@
         <v>234.0474538683727</v>
       </c>
       <c r="U22" t="n">
-        <v>47.80970923897021</v>
+        <v>26.42660883220728</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>285.0899515417858</v>
@@ -24265,16 +24265,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>124.7406796837482</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>188.7240531976711</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>12.87469707797553</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
         <v>139.2678442953623</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S25" t="n">
-        <v>167.1934341018228</v>
+        <v>40.74829588240078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
         <v>285.0899515417858</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>19.43753915579779</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>368.9151784928694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>50.10621932714044</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>76.39749470147214</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9745142476892</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.8822837401508</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>53.21058413347856</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>294.0192356136465</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>76.39749470147237</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>50.10621932714048</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>168.1750179097606</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>74.0430718104823</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.088714658381434</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>402.4235511641288</v>
@@ -24976,16 +24976,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>305.1653536107359</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>76.3974947014722</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>134.9787190292512</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25095,7 +25095,7 @@
         <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S34" t="n">
-        <v>19.45471601114539</v>
+        <v>7.325336391958416</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>210.6211153583885</v>
+        <v>229.7220157661583</v>
       </c>
       <c r="H35" t="n">
         <v>285.0899515417858</v>
@@ -25207,22 +25207,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>76.39749470147265</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>50.10621932714106</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.2678442953623</v>
+        <v>44.11301336870913</v>
       </c>
       <c r="I37" t="n">
-        <v>38.00040582383114</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52.73253228878542</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>18.47509558550706</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T39" t="n">
-        <v>134.9787190292518</v>
+        <v>50.10621932714061</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.6977370579149</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.0418222594612</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>209.4080040337403</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>210.6211153583885</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>285.0899515417858</v>
@@ -25681,13 +25681,13 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>2.323598490707496</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.10621932714092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S43" t="n">
         <v>167.1934341018228</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>218.6920386292907</v>
+        <v>42.93730049447859</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>168.1196511167298</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>87.5878384760712</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.39812025525838</v>
+        <v>83.39812025525839</v>
       </c>
       <c r="T44" t="n">
         <v>210.2775313912475</v>
@@ -25927,7 +25927,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>27.10843800993123</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>50.10621932714068</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>139.2678442953623</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.2700923522025</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S46" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
-        <v>214.5334909386465</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>139.254155672505</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>773037.5358238459</v>
+        <v>773037.535823846</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>773473.0862837757</v>
+        <v>773473.0862837756</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>338534.0532365623</v>
+        <v>338534.0532365624</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>338534.0532365622</v>
+        <v>338534.0532365626</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>338534.0532365623</v>
+        <v>338534.0532365625</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474474.8983485964</v>
+        <v>474474.8983485961</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>474474.8983485962</v>
+        <v>474474.8983485959</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474474.8983485961</v>
+        <v>474474.8983485962</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474474.8983485962</v>
+        <v>474474.8983485961</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372629.4093570953</v>
+        <v>372629.4093570955</v>
       </c>
       <c r="C2" t="n">
-        <v>372629.4093570953</v>
+        <v>372629.4093570954</v>
       </c>
       <c r="D2" t="n">
-        <v>372958.0842158538</v>
+        <v>372958.0842158537</v>
       </c>
       <c r="E2" t="n">
-        <v>158189.560841361</v>
+        <v>158189.5608413611</v>
       </c>
       <c r="F2" t="n">
-        <v>158189.560841361</v>
+        <v>158189.5608413611</v>
       </c>
       <c r="G2" t="n">
-        <v>158189.560841361</v>
+        <v>158189.5608413612</v>
       </c>
       <c r="H2" t="n">
         <v>158189.5608413611</v>
       </c>
       <c r="I2" t="n">
-        <v>220234.9265884489</v>
+        <v>220234.926588449</v>
       </c>
       <c r="J2" t="n">
         <v>220234.926588449</v>
@@ -26343,10 +26343,10 @@
         <v>220234.9265884489</v>
       </c>
       <c r="L2" t="n">
-        <v>220234.926588449</v>
+        <v>220234.9265884489</v>
       </c>
       <c r="M2" t="n">
-        <v>220234.926588449</v>
+        <v>220234.9265884488</v>
       </c>
       <c r="N2" t="n">
         <v>220234.9265884489</v>
@@ -26374,10 +26374,10 @@
         <v>2779.984380914617</v>
       </c>
       <c r="E3" t="n">
-        <v>303697.0371402956</v>
+        <v>303697.0371402959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.092592171136463e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>160172.8854242709</v>
+        <v>160172.8854242707</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>467.6428403250461</v>
       </c>
       <c r="M3" t="n">
-        <v>71764.79186603767</v>
+        <v>71764.79186603778</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323475.944262025</v>
+        <v>323475.9442620251</v>
       </c>
       <c r="C4" t="n">
         <v>323475.944262025</v>
       </c>
       <c r="D4" t="n">
-        <v>322918.0490353183</v>
+        <v>322918.0490353182</v>
       </c>
       <c r="E4" t="n">
-        <v>15528.44571617683</v>
+        <v>15528.44571617686</v>
       </c>
       <c r="F4" t="n">
-        <v>15528.44571617684</v>
+        <v>15528.44571617687</v>
       </c>
       <c r="G4" t="n">
-        <v>15528.44571617684</v>
+        <v>15528.44571617686</v>
       </c>
       <c r="H4" t="n">
-        <v>15528.44571617685</v>
+        <v>15528.44571617686</v>
       </c>
       <c r="I4" t="n">
         <v>24838.73571707222</v>
@@ -26444,22 +26444,22 @@
         <v>24838.73571707222</v>
       </c>
       <c r="K4" t="n">
-        <v>24838.73571707223</v>
+        <v>24838.73571707221</v>
       </c>
       <c r="L4" t="n">
         <v>24838.73571707222</v>
       </c>
       <c r="M4" t="n">
-        <v>24838.73571707221</v>
+        <v>24838.7357170722</v>
       </c>
       <c r="N4" t="n">
-        <v>24838.73571707221</v>
+        <v>24838.73571707222</v>
       </c>
       <c r="O4" t="n">
-        <v>24838.73571707221</v>
+        <v>24838.73571707222</v>
       </c>
       <c r="P4" t="n">
-        <v>24838.73571707221</v>
+        <v>24838.73571707222</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>36619.79760845381</v>
       </c>
       <c r="E5" t="n">
-        <v>26408.71286085626</v>
+        <v>26408.71286085629</v>
       </c>
       <c r="F5" t="n">
-        <v>26408.71286085626</v>
+        <v>26408.71286085629</v>
       </c>
       <c r="G5" t="n">
-        <v>26408.71286085626</v>
+        <v>26408.71286085629</v>
       </c>
       <c r="H5" t="n">
-        <v>26408.71286085627</v>
+        <v>26408.71286085629</v>
       </c>
       <c r="I5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112112.3093903734</v>
+        <v>-112121.0054539279</v>
       </c>
       <c r="C6" t="n">
-        <v>12702.1635569511</v>
+        <v>12693.46749339662</v>
       </c>
       <c r="D6" t="n">
-        <v>10640.25319116711</v>
+        <v>10632.98614873756</v>
       </c>
       <c r="E6" t="n">
-        <v>-187444.6348759677</v>
+        <v>-188385.6781069822</v>
       </c>
       <c r="F6" t="n">
-        <v>116252.4022643279</v>
+        <v>115311.3590333136</v>
       </c>
       <c r="G6" t="n">
-        <v>116252.4022643279</v>
+        <v>115311.3590333137</v>
       </c>
       <c r="H6" t="n">
-        <v>116252.4022643279</v>
+        <v>115311.3590333136</v>
       </c>
       <c r="I6" t="n">
-        <v>-5486.815692137105</v>
+        <v>-6158.09646338117</v>
       </c>
       <c r="J6" t="n">
-        <v>154686.0697321339</v>
+        <v>154014.7889608895</v>
       </c>
       <c r="K6" t="n">
-        <v>154686.0697321338</v>
+        <v>154014.7889608894</v>
       </c>
       <c r="L6" t="n">
-        <v>154218.4268918088</v>
+        <v>153547.1461205644</v>
       </c>
       <c r="M6" t="n">
-        <v>82921.27786609618</v>
+        <v>82249.99709485158</v>
       </c>
       <c r="N6" t="n">
-        <v>154686.0697321338</v>
+        <v>154014.7889608895</v>
       </c>
       <c r="O6" t="n">
-        <v>154686.0697321338</v>
+        <v>154014.7889608894</v>
       </c>
       <c r="P6" t="n">
-        <v>154686.0697321338</v>
+        <v>154014.7889608895</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>132.1034799553768</v>
       </c>
       <c r="E3" t="n">
-        <v>403.0929013749397</v>
+        <v>403.09290137494</v>
       </c>
       <c r="F3" t="n">
-        <v>403.0929013749397</v>
+        <v>403.09290137494</v>
       </c>
       <c r="G3" t="n">
-        <v>403.0929013749397</v>
+        <v>403.09290137494</v>
       </c>
       <c r="H3" t="n">
-        <v>403.0929013749397</v>
+        <v>403.09290137494</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26779,7 +26779,7 @@
         <v>551.5907128643867</v>
       </c>
       <c r="P3" t="n">
-        <v>551.5907128643867</v>
+        <v>551.5907128643865</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>1.847726076095356</v>
       </c>
       <c r="E4" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="F4" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895165</v>
       </c>
       <c r="G4" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="H4" t="n">
-        <v>289.8238093895162</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="I4" t="n">
         <v>471.8000591907775</v>
@@ -26825,10 +26825,10 @@
         <v>471.8000591907774</v>
       </c>
       <c r="N4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="O4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="P4" t="n">
         <v>471.8000591907774</v>
@@ -26968,7 +26968,7 @@
         <v>2.575886463669576</v>
       </c>
       <c r="E3" t="n">
-        <v>270.9894214195629</v>
+        <v>270.9894214195631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148.4978114894469</v>
+        <v>148.4978114894467</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>1.847726076095356</v>
       </c>
       <c r="E4" t="n">
-        <v>287.9760833134207</v>
+        <v>287.9760833134211</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.126366253371932e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>181.9762498012614</v>
+        <v>181.9762498012611</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>1.847726076095341</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9760833134206</v>
+        <v>287.976083313421</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>1.847726076095356</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9760833134207</v>
+        <v>287.9760833134211</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.126366253371932e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27937,10 +27937,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>113.8804601267061</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>117.6604107197705</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>101.6322018848435</v>
+        <v>99.78447580874814</v>
       </c>
       <c r="T9" t="n">
-        <v>154.9756558010089</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U9" t="n">
-        <v>193.5108827883952</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V9" t="n">
-        <v>209.7266856608011</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -28019,7 +28019,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>157.4539809042683</v>
+        <v>157.6742298525389</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>73.70878111087413</v>
+        <v>71.86105503477877</v>
       </c>
       <c r="S10" t="n">
-        <v>180.3763361589797</v>
+        <v>178.5286100828844</v>
       </c>
       <c r="T10" t="n">
-        <v>234.507928020338</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U10" t="n">
         <v>279.9571721944234</v>
@@ -28073,7 +28073,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>274.431241770119</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H5" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I5" t="n">
         <v>20.07482431392581</v>
@@ -31290,10 +31290,10 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K5" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L5" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M5" t="n">
         <v>91.4328122641236</v>
@@ -31302,13 +31302,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P5" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R5" t="n">
         <v>32.70929726501893</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H6" t="n">
         <v>2.690752461025844</v>
@@ -31390,7 +31390,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R6" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S6" t="n">
         <v>5.174993947522452</v>
@@ -31399,7 +31399,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I7" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J7" t="n">
         <v>16.51370646860668</v>
@@ -31454,19 +31454,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M7" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N7" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O7" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P7" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R7" t="n">
         <v>10.50235208868826</v>
@@ -31475,7 +31475,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U7" t="n">
         <v>0.01274041903197122</v>
@@ -31612,13 +31612,13 @@
         <v>57.96224988694441</v>
       </c>
       <c r="M9" t="n">
-        <v>59.33735421547862</v>
+        <v>59.41200981451278</v>
       </c>
       <c r="N9" t="n">
         <v>55.04111946984535</v>
       </c>
       <c r="O9" t="n">
-        <v>59.59920507609535</v>
+        <v>59.5245494770612</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.620473975376641</v>
+        <v>1.620473975376642</v>
       </c>
       <c r="H11" t="n">
-        <v>16.59567910032603</v>
+        <v>16.59567910032604</v>
       </c>
       <c r="I11" t="n">
-        <v>62.47332293570801</v>
+        <v>62.47332293570805</v>
       </c>
       <c r="J11" t="n">
-        <v>137.5357030676233</v>
+        <v>137.5357030676234</v>
       </c>
       <c r="K11" t="n">
-        <v>206.1303664453166</v>
+        <v>206.1303664453167</v>
       </c>
       <c r="L11" t="n">
-        <v>255.7229468692495</v>
+        <v>255.7229468692496</v>
       </c>
       <c r="M11" t="n">
-        <v>284.5410509288538</v>
+        <v>284.541050928854</v>
       </c>
       <c r="N11" t="n">
-        <v>289.1452226113927</v>
+        <v>289.1452226113929</v>
       </c>
       <c r="O11" t="n">
-        <v>273.0316345187412</v>
+        <v>273.0316345187414</v>
       </c>
       <c r="P11" t="n">
-        <v>233.0261832516304</v>
+        <v>233.0261832516305</v>
       </c>
       <c r="Q11" t="n">
         <v>174.9929590084544</v>
       </c>
       <c r="R11" t="n">
-        <v>101.792098355753</v>
+        <v>101.7920983557531</v>
       </c>
       <c r="S11" t="n">
-        <v>36.92655071389525</v>
+        <v>36.92655071389527</v>
       </c>
       <c r="T11" t="n">
-        <v>7.093624827211249</v>
+        <v>7.093624827211253</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1296379180301312</v>
+        <v>0.1296379180301313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8670300142781723</v>
+        <v>0.8670300142781728</v>
       </c>
       <c r="H12" t="n">
-        <v>8.373684611581297</v>
+        <v>8.373684611581302</v>
       </c>
       <c r="I12" t="n">
-        <v>29.85169128106866</v>
+        <v>29.85169128106867</v>
       </c>
       <c r="J12" t="n">
-        <v>81.91532253318471</v>
+        <v>81.91532253318475</v>
       </c>
       <c r="K12" t="n">
         <v>140.0063334898223</v>
       </c>
       <c r="L12" t="n">
-        <v>188.2557932317584</v>
+        <v>188.2557932317585</v>
       </c>
       <c r="M12" t="n">
-        <v>219.6856312493421</v>
+        <v>219.6856312493423</v>
       </c>
       <c r="N12" t="n">
-        <v>225.5000562135147</v>
+        <v>225.5000562135148</v>
       </c>
       <c r="O12" t="n">
-        <v>206.2884964234562</v>
+        <v>206.2884964234563</v>
       </c>
       <c r="P12" t="n">
-        <v>165.5647050949257</v>
+        <v>165.5647050949258</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.6756207699646</v>
+        <v>110.6756207699647</v>
       </c>
       <c r="R12" t="n">
-        <v>53.83191614965707</v>
+        <v>53.8319161496571</v>
       </c>
       <c r="S12" t="n">
-        <v>16.10470223889499</v>
+        <v>16.104702238895</v>
       </c>
       <c r="T12" t="n">
-        <v>3.494739399656316</v>
+        <v>3.494739399656318</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05704144830777452</v>
+        <v>0.05704144830777455</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7268888385449732</v>
+        <v>0.7268888385449737</v>
       </c>
       <c r="H13" t="n">
-        <v>6.462702582699857</v>
+        <v>6.462702582699861</v>
       </c>
       <c r="I13" t="n">
-        <v>21.85952979915248</v>
+        <v>21.85952979915249</v>
       </c>
       <c r="J13" t="n">
-        <v>51.39104088512961</v>
+        <v>51.39104088512963</v>
       </c>
       <c r="K13" t="n">
-        <v>84.45126687822506</v>
+        <v>84.4512668782251</v>
       </c>
       <c r="L13" t="n">
-        <v>108.0685460505863</v>
+        <v>108.0685460505864</v>
       </c>
       <c r="M13" t="n">
-        <v>113.9431294820997</v>
+        <v>113.9431294820998</v>
       </c>
       <c r="N13" t="n">
-        <v>111.2338165384322</v>
+        <v>111.2338165384323</v>
       </c>
       <c r="O13" t="n">
-        <v>102.7424332881568</v>
+        <v>102.7424332881569</v>
       </c>
       <c r="P13" t="n">
-        <v>87.91390098183928</v>
+        <v>87.91390098183932</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.8670281076159</v>
+        <v>60.86702810761594</v>
       </c>
       <c r="R13" t="n">
-        <v>32.68356541312215</v>
+        <v>32.68356541312217</v>
       </c>
       <c r="S13" t="n">
         <v>12.66769003173376</v>
       </c>
       <c r="T13" t="n">
-        <v>3.105797764692158</v>
+        <v>3.105797764692159</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03964848210245313</v>
+        <v>0.03964848210245316</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.620473975376641</v>
+        <v>1.620473975376642</v>
       </c>
       <c r="H14" t="n">
-        <v>16.59567910032603</v>
+        <v>16.59567910032604</v>
       </c>
       <c r="I14" t="n">
-        <v>62.473322935708</v>
+        <v>62.47332293570805</v>
       </c>
       <c r="J14" t="n">
-        <v>137.5357030676233</v>
+        <v>137.5357030676234</v>
       </c>
       <c r="K14" t="n">
-        <v>206.1303664453165</v>
+        <v>206.1303664453167</v>
       </c>
       <c r="L14" t="n">
-        <v>255.7229468692495</v>
+        <v>255.7229468692497</v>
       </c>
       <c r="M14" t="n">
-        <v>284.5410509288538</v>
+        <v>284.541050928854</v>
       </c>
       <c r="N14" t="n">
-        <v>289.1452226113927</v>
+        <v>289.1452226113929</v>
       </c>
       <c r="O14" t="n">
-        <v>273.0316345187412</v>
+        <v>273.0316345187414</v>
       </c>
       <c r="P14" t="n">
-        <v>233.0261832516303</v>
+        <v>233.0261832516305</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.9929590084543</v>
+        <v>174.9929590084545</v>
       </c>
       <c r="R14" t="n">
-        <v>101.792098355753</v>
+        <v>101.7920983557531</v>
       </c>
       <c r="S14" t="n">
-        <v>36.92655071389524</v>
+        <v>36.92655071389527</v>
       </c>
       <c r="T14" t="n">
-        <v>7.093624827211248</v>
+        <v>7.093624827211254</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1296379180301312</v>
+        <v>0.1296379180301313</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8670300142781722</v>
+        <v>0.8670300142781729</v>
       </c>
       <c r="H15" t="n">
-        <v>8.373684611581297</v>
+        <v>8.373684611581304</v>
       </c>
       <c r="I15" t="n">
-        <v>29.85169128106865</v>
+        <v>29.85169128106867</v>
       </c>
       <c r="J15" t="n">
-        <v>81.91532253318469</v>
+        <v>81.91532253318476</v>
       </c>
       <c r="K15" t="n">
-        <v>140.0063334898222</v>
+        <v>140.0063334898223</v>
       </c>
       <c r="L15" t="n">
-        <v>188.2557932317584</v>
+        <v>188.2557932317586</v>
       </c>
       <c r="M15" t="n">
-        <v>219.6856312493421</v>
+        <v>219.6856312493423</v>
       </c>
       <c r="N15" t="n">
-        <v>225.5000562135146</v>
+        <v>225.5000562135148</v>
       </c>
       <c r="O15" t="n">
-        <v>206.2884964234562</v>
+        <v>206.2884964234563</v>
       </c>
       <c r="P15" t="n">
-        <v>165.5647050949257</v>
+        <v>165.5647050949259</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.6756207699646</v>
+        <v>110.6756207699647</v>
       </c>
       <c r="R15" t="n">
-        <v>53.83191614965706</v>
+        <v>53.8319161496571</v>
       </c>
       <c r="S15" t="n">
-        <v>16.10470223889499</v>
+        <v>16.104702238895</v>
       </c>
       <c r="T15" t="n">
-        <v>3.494739399656316</v>
+        <v>3.494739399656318</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05704144830777451</v>
+        <v>0.05704144830777456</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7268888385449731</v>
+        <v>0.7268888385449738</v>
       </c>
       <c r="H16" t="n">
-        <v>6.462702582699857</v>
+        <v>6.462702582699862</v>
       </c>
       <c r="I16" t="n">
-        <v>21.85952979915247</v>
+        <v>21.85952979915249</v>
       </c>
       <c r="J16" t="n">
-        <v>51.3910408851296</v>
+        <v>51.39104088512964</v>
       </c>
       <c r="K16" t="n">
-        <v>84.45126687822504</v>
+        <v>84.45126687822511</v>
       </c>
       <c r="L16" t="n">
-        <v>108.0685460505863</v>
+        <v>108.0685460505864</v>
       </c>
       <c r="M16" t="n">
-        <v>113.9431294820997</v>
+        <v>113.9431294820998</v>
       </c>
       <c r="N16" t="n">
-        <v>111.2338165384322</v>
+        <v>111.2338165384323</v>
       </c>
       <c r="O16" t="n">
-        <v>102.7424332881568</v>
+        <v>102.7424332881569</v>
       </c>
       <c r="P16" t="n">
-        <v>87.91390098183926</v>
+        <v>87.91390098183933</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.86702810761589</v>
+        <v>60.86702810761594</v>
       </c>
       <c r="R16" t="n">
-        <v>32.68356541312215</v>
+        <v>32.68356541312217</v>
       </c>
       <c r="S16" t="n">
-        <v>12.66769003173375</v>
+        <v>12.66769003173376</v>
       </c>
       <c r="T16" t="n">
-        <v>3.105797764692157</v>
+        <v>3.10579776469216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03964848210245313</v>
+        <v>0.03964848210245316</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.620473975376641</v>
+        <v>1.620473975376642</v>
       </c>
       <c r="H17" t="n">
-        <v>16.59567910032603</v>
+        <v>16.59567910032604</v>
       </c>
       <c r="I17" t="n">
-        <v>62.47332293570801</v>
+        <v>62.47332293570805</v>
       </c>
       <c r="J17" t="n">
-        <v>137.5357030676233</v>
+        <v>137.5357030676234</v>
       </c>
       <c r="K17" t="n">
-        <v>206.1303664453166</v>
+        <v>206.1303664453167</v>
       </c>
       <c r="L17" t="n">
-        <v>255.7229468692495</v>
+        <v>255.7229468692497</v>
       </c>
       <c r="M17" t="n">
-        <v>284.5410509288538</v>
+        <v>284.541050928854</v>
       </c>
       <c r="N17" t="n">
-        <v>289.1452226113927</v>
+        <v>289.1452226113929</v>
       </c>
       <c r="O17" t="n">
-        <v>273.0316345187412</v>
+        <v>273.0316345187414</v>
       </c>
       <c r="P17" t="n">
-        <v>233.0261832516304</v>
+        <v>233.0261832516305</v>
       </c>
       <c r="Q17" t="n">
-        <v>174.9929590084544</v>
+        <v>174.9929590084545</v>
       </c>
       <c r="R17" t="n">
-        <v>101.792098355753</v>
+        <v>101.7920983557531</v>
       </c>
       <c r="S17" t="n">
-        <v>36.92655071389525</v>
+        <v>36.92655071389527</v>
       </c>
       <c r="T17" t="n">
-        <v>7.093624827211249</v>
+        <v>7.093624827211254</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1296379180301312</v>
+        <v>0.1296379180301313</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8670300142781723</v>
+        <v>0.8670300142781729</v>
       </c>
       <c r="H18" t="n">
-        <v>8.373684611581297</v>
+        <v>8.373684611581304</v>
       </c>
       <c r="I18" t="n">
-        <v>29.85169128106866</v>
+        <v>29.85169128106867</v>
       </c>
       <c r="J18" t="n">
-        <v>81.91532253318471</v>
+        <v>81.91532253318476</v>
       </c>
       <c r="K18" t="n">
         <v>140.0063334898223</v>
       </c>
       <c r="L18" t="n">
-        <v>188.2557932317584</v>
+        <v>188.2557932317586</v>
       </c>
       <c r="M18" t="n">
-        <v>219.6856312493421</v>
+        <v>219.6856312493423</v>
       </c>
       <c r="N18" t="n">
-        <v>225.5000562135147</v>
+        <v>225.5000562135148</v>
       </c>
       <c r="O18" t="n">
-        <v>206.2884964234562</v>
+        <v>206.2884964234563</v>
       </c>
       <c r="P18" t="n">
-        <v>165.5647050949257</v>
+        <v>165.5647050949259</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.6756207699646</v>
+        <v>110.6756207699647</v>
       </c>
       <c r="R18" t="n">
-        <v>53.83191614965707</v>
+        <v>53.8319161496571</v>
       </c>
       <c r="S18" t="n">
-        <v>16.10470223889499</v>
+        <v>16.104702238895</v>
       </c>
       <c r="T18" t="n">
-        <v>3.494739399656316</v>
+        <v>3.494739399656318</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05704144830777452</v>
+        <v>0.05704144830777456</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7268888385449732</v>
+        <v>0.7268888385449738</v>
       </c>
       <c r="H19" t="n">
-        <v>6.462702582699857</v>
+        <v>6.462702582699862</v>
       </c>
       <c r="I19" t="n">
-        <v>21.85952979915248</v>
+        <v>21.85952979915249</v>
       </c>
       <c r="J19" t="n">
-        <v>51.39104088512961</v>
+        <v>51.39104088512964</v>
       </c>
       <c r="K19" t="n">
-        <v>84.45126687822506</v>
+        <v>84.45126687822511</v>
       </c>
       <c r="L19" t="n">
-        <v>108.0685460505863</v>
+        <v>108.0685460505864</v>
       </c>
       <c r="M19" t="n">
-        <v>113.9431294820997</v>
+        <v>113.9431294820998</v>
       </c>
       <c r="N19" t="n">
-        <v>111.2338165384322</v>
+        <v>111.2338165384323</v>
       </c>
       <c r="O19" t="n">
-        <v>102.7424332881568</v>
+        <v>102.7424332881569</v>
       </c>
       <c r="P19" t="n">
-        <v>87.91390098183928</v>
+        <v>87.91390098183933</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.8670281076159</v>
+        <v>60.86702810761594</v>
       </c>
       <c r="R19" t="n">
-        <v>32.68356541312215</v>
+        <v>32.68356541312217</v>
       </c>
       <c r="S19" t="n">
         <v>12.66769003173376</v>
       </c>
       <c r="T19" t="n">
-        <v>3.105797764692158</v>
+        <v>3.10579776469216</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03964848210245313</v>
+        <v>0.03964848210245316</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.620473975376641</v>
+        <v>1.620473975376642</v>
       </c>
       <c r="H20" t="n">
-        <v>16.59567910032603</v>
+        <v>16.59567910032604</v>
       </c>
       <c r="I20" t="n">
-        <v>62.47332293570801</v>
+        <v>62.47332293570805</v>
       </c>
       <c r="J20" t="n">
-        <v>137.5357030676233</v>
+        <v>137.5357030676234</v>
       </c>
       <c r="K20" t="n">
-        <v>206.1303664453166</v>
+        <v>206.1303664453167</v>
       </c>
       <c r="L20" t="n">
-        <v>255.7229468692495</v>
+        <v>255.7229468692496</v>
       </c>
       <c r="M20" t="n">
-        <v>284.5410509288538</v>
+        <v>284.541050928854</v>
       </c>
       <c r="N20" t="n">
-        <v>289.1452226113927</v>
+        <v>289.1452226113929</v>
       </c>
       <c r="O20" t="n">
-        <v>273.0316345187412</v>
+        <v>273.0316345187414</v>
       </c>
       <c r="P20" t="n">
-        <v>233.0261832516304</v>
+        <v>233.0261832516305</v>
       </c>
       <c r="Q20" t="n">
         <v>174.9929590084544</v>
       </c>
       <c r="R20" t="n">
-        <v>101.792098355753</v>
+        <v>101.7920983557531</v>
       </c>
       <c r="S20" t="n">
-        <v>36.92655071389525</v>
+        <v>36.92655071389527</v>
       </c>
       <c r="T20" t="n">
-        <v>7.093624827211249</v>
+        <v>7.093624827211253</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1296379180301312</v>
+        <v>0.1296379180301313</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8670300142781723</v>
+        <v>0.8670300142781728</v>
       </c>
       <c r="H21" t="n">
-        <v>8.373684611581297</v>
+        <v>8.373684611581302</v>
       </c>
       <c r="I21" t="n">
-        <v>29.85169128106866</v>
+        <v>29.85169128106867</v>
       </c>
       <c r="J21" t="n">
-        <v>81.91532253318471</v>
+        <v>81.91532253318475</v>
       </c>
       <c r="K21" t="n">
         <v>140.0063334898223</v>
       </c>
       <c r="L21" t="n">
-        <v>188.2557932317584</v>
+        <v>188.2557932317585</v>
       </c>
       <c r="M21" t="n">
-        <v>219.6856312493421</v>
+        <v>219.6856312493423</v>
       </c>
       <c r="N21" t="n">
-        <v>225.5000562135147</v>
+        <v>225.5000562135148</v>
       </c>
       <c r="O21" t="n">
-        <v>206.2884964234562</v>
+        <v>206.2884964234563</v>
       </c>
       <c r="P21" t="n">
-        <v>165.5647050949257</v>
+        <v>165.5647050949258</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.6756207699646</v>
+        <v>110.6756207699647</v>
       </c>
       <c r="R21" t="n">
-        <v>53.83191614965707</v>
+        <v>53.8319161496571</v>
       </c>
       <c r="S21" t="n">
-        <v>16.10470223889499</v>
+        <v>16.104702238895</v>
       </c>
       <c r="T21" t="n">
-        <v>3.494739399656316</v>
+        <v>3.494739399656318</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05704144830777452</v>
+        <v>0.05704144830777455</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7268888385449732</v>
+        <v>0.7268888385449737</v>
       </c>
       <c r="H22" t="n">
-        <v>6.462702582699857</v>
+        <v>6.462702582699861</v>
       </c>
       <c r="I22" t="n">
-        <v>21.85952979915248</v>
+        <v>21.85952979915249</v>
       </c>
       <c r="J22" t="n">
-        <v>51.39104088512961</v>
+        <v>51.39104088512963</v>
       </c>
       <c r="K22" t="n">
-        <v>84.45126687822506</v>
+        <v>84.4512668782251</v>
       </c>
       <c r="L22" t="n">
-        <v>108.0685460505863</v>
+        <v>108.0685460505864</v>
       </c>
       <c r="M22" t="n">
-        <v>113.9431294820997</v>
+        <v>113.9431294820998</v>
       </c>
       <c r="N22" t="n">
-        <v>111.2338165384322</v>
+        <v>111.2338165384323</v>
       </c>
       <c r="O22" t="n">
-        <v>102.7424332881568</v>
+        <v>102.7424332881569</v>
       </c>
       <c r="P22" t="n">
-        <v>87.91390098183928</v>
+        <v>87.91390098183932</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.8670281076159</v>
+        <v>60.86702810761594</v>
       </c>
       <c r="R22" t="n">
-        <v>32.68356541312215</v>
+        <v>32.68356541312217</v>
       </c>
       <c r="S22" t="n">
         <v>12.66769003173376</v>
       </c>
       <c r="T22" t="n">
-        <v>3.105797764692158</v>
+        <v>3.105797764692159</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03964848210245313</v>
+        <v>0.03964848210245316</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>22.70946085677345</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>85.48824505609755</v>
       </c>
       <c r="J44" t="n">
         <v>188.2033055918542</v>
       </c>
       <c r="K44" t="n">
-        <v>282.0679684081336</v>
+        <v>282.0679684081335</v>
       </c>
       <c r="L44" t="n">
-        <v>349.9302569662179</v>
+        <v>349.9302569662178</v>
       </c>
       <c r="M44" t="n">
         <v>389.3648352170803</v>
       </c>
       <c r="N44" t="n">
-        <v>395.6651653192952</v>
+        <v>395.6651653192951</v>
       </c>
       <c r="O44" t="n">
-        <v>373.615395867857</v>
+        <v>373.6153958678569</v>
       </c>
       <c r="P44" t="n">
-        <v>318.8720964755372</v>
+        <v>318.8720964755371</v>
       </c>
       <c r="Q44" t="n">
-        <v>239.4596646988303</v>
+        <v>239.4596646988302</v>
       </c>
       <c r="R44" t="n">
-        <v>139.2918999677087</v>
+        <v>139.2918999677086</v>
       </c>
       <c r="S44" t="n">
-        <v>50.53014419858177</v>
+        <v>50.53014419858175</v>
       </c>
       <c r="T44" t="n">
-        <v>9.706887821362219</v>
+        <v>9.706887821362217</v>
       </c>
       <c r="U44" t="n">
         <v>0.1773960081573905</v>
@@ -34444,7 +34444,7 @@
         <v>11.45851650686207</v>
       </c>
       <c r="I45" t="n">
-        <v>40.84893486778713</v>
+        <v>40.84893486778712</v>
       </c>
       <c r="J45" t="n">
         <v>112.0925994887901</v>
@@ -34456,13 +34456,13 @@
         <v>257.6084739655798</v>
       </c>
       <c r="M45" t="n">
-        <v>300.6169385110907</v>
+        <v>300.6169385110906</v>
       </c>
       <c r="N45" t="n">
         <v>308.573374359861</v>
       </c>
       <c r="O45" t="n">
-        <v>282.2843528373055</v>
+        <v>282.2843528373054</v>
       </c>
       <c r="P45" t="n">
         <v>226.5580797800912</v>
@@ -34471,16 +34471,16 @@
         <v>151.4480764830671</v>
       </c>
       <c r="R45" t="n">
-        <v>73.66337859724774</v>
+        <v>73.66337859724773</v>
       </c>
       <c r="S45" t="n">
-        <v>22.03761008472336</v>
+        <v>22.03761008472335</v>
       </c>
       <c r="T45" t="n">
-        <v>4.782187406814822</v>
+        <v>4.782187406814821</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07805528955628116</v>
+        <v>0.07805528955628115</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9946717772964349</v>
+        <v>0.9946717772964346</v>
       </c>
       <c r="H46" t="n">
-        <v>8.843536347235581</v>
+        <v>8.843536347235579</v>
       </c>
       <c r="I46" t="n">
-        <v>29.91249308451462</v>
+        <v>29.91249308451461</v>
       </c>
       <c r="J46" t="n">
-        <v>70.32329465485795</v>
+        <v>70.32329465485793</v>
       </c>
       <c r="K46" t="n">
         <v>115.5627755804403</v>
@@ -34541,25 +34541,25 @@
         <v>152.2119093384627</v>
       </c>
       <c r="O46" t="n">
-        <v>140.5923344854998</v>
+        <v>140.5923344854997</v>
       </c>
       <c r="P46" t="n">
         <v>120.3010302286524</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.29019764252239</v>
+        <v>83.29019764252237</v>
       </c>
       <c r="R46" t="n">
-        <v>44.72406009552878</v>
+        <v>44.72406009552877</v>
       </c>
       <c r="S46" t="n">
-        <v>17.33441633706605</v>
+        <v>17.33441633706604</v>
       </c>
       <c r="T46" t="n">
-        <v>4.249961230266584</v>
+        <v>4.249961230266583</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05425482421616924</v>
+        <v>0.05425482421616923</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>1.847726076095356</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="L8" t="n">
-        <v>1.7730704770612</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>1.847726076095356</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>1.847726076095356</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7730704770612</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="N9" t="n">
         <v>1.847726076095356</v>
       </c>
       <c r="O9" t="n">
-        <v>1.847726076095356</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="L10" t="n">
         <v>1.847726076095356</v>
@@ -35342,13 +35342,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.773070477061199</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="P10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>64.21211173431536</v>
+        <v>64.21211173431544</v>
       </c>
       <c r="K11" t="n">
-        <v>116.9939767720994</v>
+        <v>116.9939767720995</v>
       </c>
       <c r="L11" t="n">
-        <v>160.2375488064047</v>
+        <v>160.2375488064048</v>
       </c>
       <c r="M11" t="n">
-        <v>191.2508264718084</v>
+        <v>191.2508264718085</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2329318547734</v>
+        <v>196.2329318547736</v>
       </c>
       <c r="O11" t="n">
-        <v>179.8418588929581</v>
+        <v>179.8418588929583</v>
       </c>
       <c r="P11" t="n">
-        <v>139.3768199707462</v>
+        <v>139.3768199707463</v>
       </c>
       <c r="Q11" t="n">
-        <v>84.95915460930232</v>
+        <v>84.9591546093024</v>
       </c>
       <c r="R11" t="n">
-        <v>14.4799555410295</v>
+        <v>14.47995554102955</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.54608373318469</v>
+        <v>276.6757847176628</v>
       </c>
       <c r="K12" t="n">
-        <v>84.18055070520685</v>
+        <v>84.18055070520691</v>
       </c>
       <c r="L12" t="n">
-        <v>289.823809389516</v>
+        <v>132.1412694209095</v>
       </c>
       <c r="M12" t="n">
-        <v>256.9029882250608</v>
+        <v>162.1213475109248</v>
       </c>
       <c r="N12" t="n">
-        <v>172.3066628197647</v>
+        <v>172.3066628197648</v>
       </c>
       <c r="O12" t="n">
-        <v>148.5370174234562</v>
+        <v>148.5370174234563</v>
       </c>
       <c r="P12" t="n">
-        <v>111.305070092122</v>
+        <v>111.3050700921221</v>
       </c>
       <c r="Q12" t="n">
-        <v>53.98300226512588</v>
+        <v>53.98300226512595</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.334479698265375</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>240.56472922392</v>
       </c>
       <c r="L13" t="n">
-        <v>223.027114452005</v>
+        <v>53.44025215668487</v>
       </c>
       <c r="M13" t="n">
-        <v>57.6781869833197</v>
+        <v>57.67818698331976</v>
       </c>
       <c r="N13" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="O13" t="n">
-        <v>46.66753521516048</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="P13" t="n">
-        <v>289.823809389516</v>
+        <v>216.2543975104811</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>64.21211173431533</v>
+        <v>64.21211173431547</v>
       </c>
       <c r="K14" t="n">
-        <v>116.9939767720994</v>
+        <v>116.9939767720996</v>
       </c>
       <c r="L14" t="n">
-        <v>160.2375488064046</v>
+        <v>160.2375488064048</v>
       </c>
       <c r="M14" t="n">
-        <v>191.2508264718084</v>
+        <v>191.2508264718086</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2329318547734</v>
+        <v>196.2329318547736</v>
       </c>
       <c r="O14" t="n">
-        <v>179.8418588929581</v>
+        <v>179.8418588929583</v>
       </c>
       <c r="P14" t="n">
-        <v>139.3768199707462</v>
+        <v>139.3768199707464</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.95915460930229</v>
+        <v>84.95915460930243</v>
       </c>
       <c r="R14" t="n">
-        <v>14.47995554102948</v>
+        <v>14.47995554102957</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.310585815106425</v>
+        <v>9.31058581510645</v>
       </c>
       <c r="J15" t="n">
-        <v>30.54608373318468</v>
+        <v>190.0096620848721</v>
       </c>
       <c r="K15" t="n">
-        <v>84.18055070520683</v>
+        <v>84.18055070520694</v>
       </c>
       <c r="L15" t="n">
-        <v>132.1412694209094</v>
+        <v>132.1412694209095</v>
       </c>
       <c r="M15" t="n">
-        <v>162.1213475109247</v>
+        <v>162.1213475109249</v>
       </c>
       <c r="N15" t="n">
-        <v>289.823809389516</v>
+        <v>172.3066628197648</v>
       </c>
       <c r="O15" t="n">
-        <v>148.5370174234562</v>
+        <v>148.5370174234563</v>
       </c>
       <c r="P15" t="n">
-        <v>236.941518390007</v>
+        <v>111.3050700921221</v>
       </c>
       <c r="Q15" t="n">
-        <v>53.98300226512586</v>
+        <v>53.98300226512596</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.69001651594994</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.61583826413013</v>
+        <v>65.61583826413016</v>
       </c>
       <c r="K16" t="n">
-        <v>32.20089731915822</v>
+        <v>240.56472922392</v>
       </c>
       <c r="L16" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895165</v>
       </c>
       <c r="M16" t="n">
-        <v>57.67818698331968</v>
+        <v>57.67818698331978</v>
       </c>
       <c r="N16" t="n">
-        <v>122.6188339182811</v>
+        <v>59.52117103001284</v>
       </c>
       <c r="O16" t="n">
-        <v>289.823809389516</v>
+        <v>144.5576403730233</v>
       </c>
       <c r="P16" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895165</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>64.21211173431536</v>
+        <v>64.21211173431547</v>
       </c>
       <c r="K17" t="n">
-        <v>116.9939767720994</v>
+        <v>116.9939767720996</v>
       </c>
       <c r="L17" t="n">
-        <v>160.2375488064047</v>
+        <v>160.2375488064048</v>
       </c>
       <c r="M17" t="n">
-        <v>191.2508264718084</v>
+        <v>191.2508264718086</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2329318547734</v>
+        <v>196.2329318547736</v>
       </c>
       <c r="O17" t="n">
-        <v>179.8418588929581</v>
+        <v>179.8418588929583</v>
       </c>
       <c r="P17" t="n">
-        <v>139.3768199707462</v>
+        <v>139.3768199707464</v>
       </c>
       <c r="Q17" t="n">
-        <v>84.95915460930232</v>
+        <v>84.95915460930243</v>
       </c>
       <c r="R17" t="n">
-        <v>14.4799555410295</v>
+        <v>14.47995554102957</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.310585815106432</v>
+        <v>9.31058581510645</v>
       </c>
       <c r="J18" t="n">
-        <v>30.54608373318469</v>
+        <v>30.54608373318475</v>
       </c>
       <c r="K18" t="n">
-        <v>84.18055070520685</v>
+        <v>243.6441290568938</v>
       </c>
       <c r="L18" t="n">
-        <v>132.1412694209094</v>
+        <v>132.1412694209095</v>
       </c>
       <c r="M18" t="n">
-        <v>289.823809389516</v>
+        <v>162.1213475109249</v>
       </c>
       <c r="N18" t="n">
-        <v>172.3066628197647</v>
+        <v>172.3066628197648</v>
       </c>
       <c r="O18" t="n">
-        <v>148.5370174234562</v>
+        <v>148.5370174234563</v>
       </c>
       <c r="P18" t="n">
-        <v>226.756203081167</v>
+        <v>111.3050700921221</v>
       </c>
       <c r="Q18" t="n">
-        <v>53.98300226512588</v>
+        <v>53.98300226512596</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.69001651594994</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>32.20089731915823</v>
+        <v>32.20089731915829</v>
       </c>
       <c r="L19" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="M19" t="n">
-        <v>213.7787998237964</v>
+        <v>57.67818698331978</v>
       </c>
       <c r="N19" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="O19" t="n">
-        <v>289.823809389516</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="P19" t="n">
-        <v>32.1340593419345</v>
+        <v>188.2346721824114</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>64.21211173431536</v>
+        <v>64.21211173431544</v>
       </c>
       <c r="K20" t="n">
-        <v>116.9939767720994</v>
+        <v>116.9939767720995</v>
       </c>
       <c r="L20" t="n">
-        <v>160.2375488064047</v>
+        <v>160.2375488064048</v>
       </c>
       <c r="M20" t="n">
-        <v>191.2508264718084</v>
+        <v>191.2508264718085</v>
       </c>
       <c r="N20" t="n">
-        <v>196.2329318547734</v>
+        <v>196.2329318547736</v>
       </c>
       <c r="O20" t="n">
-        <v>179.8418588929581</v>
+        <v>179.8418588929583</v>
       </c>
       <c r="P20" t="n">
-        <v>139.3768199707462</v>
+        <v>139.3768199707463</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.95915460930232</v>
+        <v>84.9591546093024</v>
       </c>
       <c r="R20" t="n">
-        <v>14.4799555410295</v>
+        <v>14.47995554102955</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.310585815106432</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>30.54608373318469</v>
+        <v>276.6757847176628</v>
       </c>
       <c r="K21" t="n">
-        <v>84.18055070520685</v>
+        <v>84.18055070520691</v>
       </c>
       <c r="L21" t="n">
-        <v>132.1412694209094</v>
+        <v>132.1412694209095</v>
       </c>
       <c r="M21" t="n">
-        <v>289.8238093895162</v>
+        <v>162.1213475109248</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7577958088099</v>
+        <v>172.3066628197648</v>
       </c>
       <c r="O21" t="n">
-        <v>148.5370174234562</v>
+        <v>148.5370174234563</v>
       </c>
       <c r="P21" t="n">
-        <v>111.305070092122</v>
+        <v>111.3050700921221</v>
       </c>
       <c r="Q21" t="n">
-        <v>53.98300226512588</v>
+        <v>60.31748196339134</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>32.20089731915823</v>
+        <v>32.20089731915827</v>
       </c>
       <c r="L22" t="n">
-        <v>289.8238093895162</v>
+        <v>53.44025215668487</v>
       </c>
       <c r="M22" t="n">
-        <v>289.8238093895162</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="N22" t="n">
-        <v>59.52117103001277</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="O22" t="n">
-        <v>289.8238093895162</v>
+        <v>289.8238093895164</v>
       </c>
       <c r="P22" t="n">
-        <v>186.3916881357182</v>
+        <v>192.4726070090463</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K24" t="n">
         <v>135.7583235882914</v>
@@ -36457,7 +36457,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q24" t="n">
-        <v>470.8341693924201</v>
+        <v>204.9390099739042</v>
       </c>
       <c r="R24" t="n">
         <v>103.5214789635406</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K25" t="n">
         <v>271.6762379261352</v>
       </c>
       <c r="L25" t="n">
-        <v>410.4028893870845</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M25" t="n">
         <v>448.1052379230254</v>
@@ -36530,13 +36530,13 @@
         <v>435.8874471104327</v>
       </c>
       <c r="O25" t="n">
-        <v>131.0658431570569</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P25" t="n">
         <v>64.52118858874761</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.93067198259682</v>
+        <v>133.0303064520178</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>306.8530616732681</v>
       </c>
       <c r="K27" t="n">
-        <v>135.7583235882914</v>
+        <v>245.9418755839674</v>
       </c>
       <c r="L27" t="n">
         <v>201.4939501547308</v>
@@ -36694,7 +36694,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q27" t="n">
-        <v>204.9390099739042</v>
+        <v>94.75545797822838</v>
       </c>
       <c r="R27" t="n">
         <v>103.5214789635406</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K28" t="n">
-        <v>63.31240602137349</v>
+        <v>150.5433014926716</v>
       </c>
       <c r="L28" t="n">
-        <v>219.5083405368262</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M28" t="n">
-        <v>448.1052379230254</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N28" t="n">
         <v>435.8874471104327</v>
@@ -36770,10 +36770,10 @@
         <v>402.774769158706</v>
       </c>
       <c r="P28" t="n">
-        <v>64.52118858874761</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q28" t="n">
-        <v>149.4801267359677</v>
+        <v>21.93067198259682</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72336068879013</v>
+        <v>117.5349992554538</v>
       </c>
       <c r="K30" t="n">
-        <v>471.8000591907775</v>
+        <v>135.7583235882914</v>
       </c>
       <c r="L30" t="n">
         <v>201.4939501547308</v>
@@ -36928,13 +36928,13 @@
         <v>224.5328738373055</v>
       </c>
       <c r="P30" t="n">
-        <v>172.2984447772875</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="Q30" t="n">
-        <v>223.6507332616324</v>
+        <v>94.75545797822838</v>
       </c>
       <c r="R30" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K31" t="n">
         <v>63.31240602137349</v>
       </c>
       <c r="L31" t="n">
-        <v>93.25227197797028</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M31" t="n">
-        <v>310.828494892873</v>
+        <v>448.1052379230254</v>
       </c>
       <c r="N31" t="n">
         <v>435.8874471104327</v>
@@ -37007,10 +37007,10 @@
         <v>402.774769158706</v>
       </c>
       <c r="P31" t="n">
-        <v>328.0540001777558</v>
+        <v>66.83403755381586</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.4801267359677</v>
+        <v>21.93067198259682</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K34" t="n">
-        <v>271.6762379261352</v>
+        <v>63.31240602137349</v>
       </c>
       <c r="L34" t="n">
         <v>410.4028893870845</v>
       </c>
       <c r="M34" t="n">
-        <v>248.2516836127572</v>
+        <v>448.1052379230254</v>
       </c>
       <c r="N34" t="n">
-        <v>100.4992638300433</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O34" t="n">
         <v>402.774769158706</v>
       </c>
       <c r="P34" t="n">
-        <v>328.0540001777558</v>
+        <v>66.83403755381586</v>
       </c>
       <c r="Q34" t="n">
         <v>21.93067198259682</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J36" t="n">
-        <v>148.6157703621304</v>
+        <v>128.8503119280926</v>
       </c>
       <c r="K36" t="n">
         <v>135.7583235882914</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K37" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L37" t="n">
-        <v>370.0843301050113</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M37" t="n">
-        <v>99.65437982778744</v>
+        <v>448.1052379230254</v>
       </c>
       <c r="N37" t="n">
         <v>435.8874471104327</v>
       </c>
       <c r="O37" t="n">
-        <v>402.774769158706</v>
+        <v>84.51743641250346</v>
       </c>
       <c r="P37" t="n">
         <v>328.0540001777558</v>
       </c>
       <c r="Q37" t="n">
-        <v>149.4801267359677</v>
+        <v>122.0968845472556</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.3078294018249</v>
+        <v>0.5423709677871287</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K39" t="n">
         <v>135.7583235882914</v>
@@ -37642,10 +37642,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q39" t="n">
-        <v>471.8000591907774</v>
+        <v>313.5627678796404</v>
       </c>
       <c r="R39" t="n">
-        <v>82.79013073114483</v>
+        <v>14.66317949184234</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190253</v>
       </c>
       <c r="K40" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L40" t="n">
         <v>410.4028893870845</v>
       </c>
       <c r="M40" t="n">
-        <v>329.0660607641478</v>
+        <v>186.3601719213424</v>
       </c>
       <c r="N40" t="n">
         <v>100.4992638300433</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K42" t="n">
         <v>135.7583235882914</v>
@@ -37879,7 +37879,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q42" t="n">
-        <v>470.8341693924196</v>
+        <v>204.9390099739042</v>
       </c>
       <c r="R42" t="n">
         <v>103.5214789635406</v>
@@ -37943,19 +37943,19 @@
         <v>271.6762379261352</v>
       </c>
       <c r="L43" t="n">
-        <v>410.4028893870845</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M43" t="n">
-        <v>99.65437982778744</v>
+        <v>448.1052379230254</v>
       </c>
       <c r="N43" t="n">
         <v>435.8874471104327</v>
       </c>
       <c r="O43" t="n">
-        <v>402.774769158706</v>
+        <v>122.7921372857479</v>
       </c>
       <c r="P43" t="n">
-        <v>79.37160899092085</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q43" t="n">
         <v>149.4801267359677</v>
@@ -38019,19 +38019,19 @@
         <v>114.8797142585463</v>
       </c>
       <c r="K44" t="n">
-        <v>192.9315787349165</v>
+        <v>192.9315787349164</v>
       </c>
       <c r="L44" t="n">
-        <v>254.4448589033731</v>
+        <v>254.444858903373</v>
       </c>
       <c r="M44" t="n">
-        <v>296.0746107600349</v>
+        <v>296.0746107600348</v>
       </c>
       <c r="N44" t="n">
-        <v>302.7528745626759</v>
+        <v>302.7528745626758</v>
       </c>
       <c r="O44" t="n">
-        <v>280.4256202420739</v>
+        <v>280.4256202420738</v>
       </c>
       <c r="P44" t="n">
         <v>225.222733194653</v>
@@ -38040,7 +38040,7 @@
         <v>149.4258602996782</v>
       </c>
       <c r="R44" t="n">
-        <v>51.97975715298516</v>
+        <v>51.97975715298513</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5423709677871287</v>
+        <v>0.5423709677871216</v>
       </c>
       <c r="J45" t="n">
-        <v>100.7603365004954</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K45" t="n">
-        <v>471.8000591907774</v>
+        <v>135.7583235882914</v>
       </c>
       <c r="L45" t="n">
-        <v>201.4939501547308</v>
+        <v>201.4939501547307</v>
       </c>
       <c r="M45" t="n">
         <v>243.0526547726732</v>
@@ -38113,13 +38113,13 @@
         <v>224.5328738373055</v>
       </c>
       <c r="P45" t="n">
-        <v>172.2984447772875</v>
+        <v>172.2984447772874</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.75545797822838</v>
+        <v>313.5627678796401</v>
       </c>
       <c r="R45" t="n">
-        <v>103.5214789635406</v>
+        <v>14.66317949184232</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190251</v>
       </c>
       <c r="K46" t="n">
-        <v>271.6762379261352</v>
+        <v>137.4806266778228</v>
       </c>
       <c r="L46" t="n">
-        <v>410.4028893870845</v>
+        <v>410.4028893870844</v>
       </c>
       <c r="M46" t="n">
-        <v>99.65437982778744</v>
+        <v>448.1052379230253</v>
       </c>
       <c r="N46" t="n">
-        <v>435.8874471104327</v>
+        <v>100.4992638300433</v>
       </c>
       <c r="O46" t="n">
-        <v>88.43443490991514</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P46" t="n">
         <v>328.0540001777558</v>
       </c>
       <c r="Q46" t="n">
-        <v>149.4801267359677</v>
+        <v>21.93067198259681</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
